--- a/scripts/TI-Dashboard-Template.xlsx
+++ b/scripts/TI-Dashboard-Template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedkhalid/Projects/TI-Dashboard/TI-Dashboard/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475C528E-1402-C54D-99B8-9F3298944E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4519AA9C-2A43-7B41-A43B-852FA5BDC064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34100" windowHeight="20280" tabRatio="955" xr2:uid="{FF39CD31-D48F-490A-A10C-4AE871D23273}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34100" windowHeight="20280" tabRatio="955" firstSheet="2" activeTab="3" xr2:uid="{FF39CD31-D48F-490A-A10C-4AE871D23273}"/>
   </bookViews>
   <sheets>
     <sheet name="GenAI Startup Overview 2024" sheetId="10" r:id="rId1"/>
     <sheet name="Gen AI Emerging skills 2024" sheetId="11" r:id="rId2"/>
     <sheet name="Competitor Insights" sheetId="12" r:id="rId3"/>
-    <sheet name="Tab_EMEA_5-10years " sheetId="1" r:id="rId4"/>
+    <sheet name="Tab_EMEA_5-10years" sheetId="1" r:id="rId4"/>
     <sheet name="Tab_EMEA _10-15years" sheetId="2" r:id="rId5"/>
     <sheet name="Tab_EMEA_15+years" sheetId="3" r:id="rId6"/>
     <sheet name="Tab_NA_5-10years" sheetId="4" r:id="rId7"/>
@@ -2110,7 +2110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA4F842-37AC-4C2E-88CD-B381D10211AB}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="87" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="87" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -17814,7 +17814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0996A841-5AAC-46DF-A010-82CD21A7741A}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="206" zoomScaleNormal="206" workbookViewId="0">
+    <sheetView zoomScale="206" zoomScaleNormal="206" workbookViewId="0">
       <selection activeCell="D21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18058,8 +18058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C371B4-3FCF-43AA-9CD6-6A16097B3200}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/scripts/TI-Dashboard-Template.xlsx
+++ b/scripts/TI-Dashboard-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedkhalid/Projects/TI-Dashboard/TI-Dashboard/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4519AA9C-2A43-7B41-A43B-852FA5BDC064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FB2E7F-F092-C842-B8CD-5B0683847788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34100" windowHeight="20280" tabRatio="955" firstSheet="2" activeTab="3" xr2:uid="{FF39CD31-D48F-490A-A10C-4AE871D23273}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34100" windowHeight="20280" tabRatio="955" firstSheet="2" activeTab="11" xr2:uid="{FF39CD31-D48F-490A-A10C-4AE871D23273}"/>
   </bookViews>
   <sheets>
     <sheet name="GenAI Startup Overview 2024" sheetId="10" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="Tab_NA_5-10years" sheetId="4" r:id="rId7"/>
     <sheet name="Tab_NA_10-15years" sheetId="5" r:id="rId8"/>
     <sheet name="Tab_NA_15+years" sheetId="6" r:id="rId9"/>
-    <sheet name="Tab_IND_5-10years" sheetId="7" r:id="rId10"/>
-    <sheet name="Tab_IND_10-15years" sheetId="8" r:id="rId11"/>
-    <sheet name="Tab_IND_15+years" sheetId="9" r:id="rId12"/>
+    <sheet name="Tab_IN_5-10years" sheetId="7" r:id="rId10"/>
+    <sheet name="Tab_IN_10-15years" sheetId="8" r:id="rId11"/>
+    <sheet name="Tab_IN_15+years" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1219,6 +1219,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2110,7 +2111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA4F842-37AC-4C2E-88CD-B381D10211AB}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="87" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="125" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -3045,8 +3046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F9CC07-0331-4014-9756-3231C331C16E}">
   <dimension ref="A2:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="A2:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -17815,7 +17816,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="206" zoomScaleNormal="206" workbookViewId="0">
-      <selection activeCell="D21" sqref="A1:XFD1048576"/>
+      <selection activeCell="D7" sqref="D7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -18058,8 +18059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C371B4-3FCF-43AA-9CD6-6A16097B3200}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/scripts/TI-Dashboard-Template.xlsx
+++ b/scripts/TI-Dashboard-Template.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedkhalid/Projects/TI-Dashboard/TI-Dashboard/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FB2E7F-F092-C842-B8CD-5B0683847788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF275DC8-A084-EA41-9575-573C07CE92F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34100" windowHeight="20280" tabRatio="955" firstSheet="2" activeTab="11" xr2:uid="{FF39CD31-D48F-490A-A10C-4AE871D23273}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34100" windowHeight="20280" tabRatio="955" activeTab="11" xr2:uid="{FF39CD31-D48F-490A-A10C-4AE871D23273}"/>
   </bookViews>
   <sheets>
     <sheet name="GenAI Startup Overview 2024" sheetId="10" r:id="rId1"/>
     <sheet name="Gen AI Emerging skills 2024" sheetId="11" r:id="rId2"/>
     <sheet name="Competitor Insights" sheetId="12" r:id="rId3"/>
-    <sheet name="Tab_EMEA_5-10years" sheetId="1" r:id="rId4"/>
-    <sheet name="Tab_EMEA _10-15years" sheetId="2" r:id="rId5"/>
-    <sheet name="Tab_EMEA_15+years" sheetId="3" r:id="rId6"/>
-    <sheet name="Tab_NA_5-10years" sheetId="4" r:id="rId7"/>
-    <sheet name="Tab_NA_10-15years" sheetId="5" r:id="rId8"/>
-    <sheet name="Tab_NA_15+years" sheetId="6" r:id="rId9"/>
-    <sheet name="Tab_IN_5-10years" sheetId="7" r:id="rId10"/>
-    <sheet name="Tab_IN_10-15years" sheetId="8" r:id="rId11"/>
-    <sheet name="Tab_IN_15+years" sheetId="9" r:id="rId12"/>
+    <sheet name="EMEA 5-10years" sheetId="1" r:id="rId4"/>
+    <sheet name="EMEA 10-15years" sheetId="2" r:id="rId5"/>
+    <sheet name="EMEA 15+years" sheetId="3" r:id="rId6"/>
+    <sheet name="NA 5-10years" sheetId="4" r:id="rId7"/>
+    <sheet name="NA 10-15years" sheetId="5" r:id="rId8"/>
+    <sheet name="NA 15+years" sheetId="6" r:id="rId9"/>
+    <sheet name="IN 5-10years" sheetId="7" r:id="rId10"/>
+    <sheet name="IN 10-15years" sheetId="8" r:id="rId11"/>
+    <sheet name="IN 15+years" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -17816,7 +17816,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="206" zoomScaleNormal="206" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:H8"/>
+      <selection activeCell="B1" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/scripts/TI-Dashboard-Template.xlsx
+++ b/scripts/TI-Dashboard-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedkhalid/Projects/TI-Dashboard/TI-Dashboard/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF275DC8-A084-EA41-9575-573C07CE92F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F848446-59B7-644F-AAB8-2D428A4A3B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34100" windowHeight="20280" tabRatio="955" activeTab="11" xr2:uid="{FF39CD31-D48F-490A-A10C-4AE871D23273}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" tabRatio="955" activeTab="1" xr2:uid="{FF39CD31-D48F-490A-A10C-4AE871D23273}"/>
   </bookViews>
   <sheets>
     <sheet name="GenAI Startup Overview 2024" sheetId="10" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="IN 10-15years" sheetId="8" r:id="rId11"/>
     <sheet name="IN 15+years" sheetId="9" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Gen AI Emerging skills 2024'!$D$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="369">
   <si>
     <t>Location</t>
   </si>
@@ -1592,7 +1595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1794,6 +1797,15 @@
     </xf>
     <xf numFmtId="17" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2111,7 +2123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA4F842-37AC-4C2E-88CD-B381D10211AB}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -3046,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F9CC07-0331-4014-9756-3231C331C16E}">
   <dimension ref="A2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3232,8 +3244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10A0AFA-A819-4C4A-9D97-B9DBFF563266}">
   <dimension ref="A1:W410"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3241,6 +3253,7 @@
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="3"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -3262,7 +3275,9 @@
       <c r="E1" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="37"/>
+      <c r="F1" s="28" t="s">
+        <v>289</v>
+      </c>
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
       <c r="I1" s="38" t="s">
@@ -3305,7 +3320,9 @@
       <c r="E2" s="31">
         <v>2</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
       <c r="I2" s="27" t="s">
@@ -3352,7 +3369,9 @@
       <c r="E3" s="31">
         <v>2</v>
       </c>
-      <c r="F3" s="37"/>
+      <c r="F3" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
       <c r="I3" s="27" t="s">
@@ -3405,7 +3424,9 @@
       <c r="E4" s="31">
         <v>4</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
       <c r="I4" s="27" t="s">
@@ -3414,7 +3435,7 @@
       <c r="J4" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="74" t="s">
         <v>307</v>
       </c>
       <c r="L4" s="40" t="s">
@@ -3456,7 +3477,9 @@
       <c r="E5" s="31">
         <v>3</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
       <c r="I5" s="27" t="s">
@@ -3513,7 +3536,9 @@
       <c r="E6" s="31">
         <v>3</v>
       </c>
-      <c r="F6" s="37"/>
+      <c r="F6" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
       <c r="I6" s="27" t="s">
@@ -3566,7 +3591,9 @@
       <c r="E7" s="31">
         <v>3</v>
       </c>
-      <c r="F7" s="37"/>
+      <c r="F7" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="27" t="s">
@@ -3621,7 +3648,9 @@
       <c r="E8" s="31">
         <v>1</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="27" t="s">
@@ -3630,7 +3659,7 @@
       <c r="J8" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="74" t="s">
         <v>294</v>
       </c>
       <c r="L8" s="40" t="s">
@@ -3670,7 +3699,9 @@
       <c r="E9" s="31">
         <v>4</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
       <c r="I9" s="27" t="s">
@@ -3723,7 +3754,9 @@
       <c r="E10" s="31">
         <v>3</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="I10" s="27" t="s">
@@ -3766,7 +3799,9 @@
       <c r="E11" s="31">
         <v>2</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
       <c r="I11" s="27" t="s">
@@ -3775,7 +3810,7 @@
       <c r="J11" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="74" t="s">
         <v>322</v>
       </c>
       <c r="L11" s="40" t="s">
@@ -3809,7 +3844,9 @@
       <c r="E12" s="31">
         <v>3</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="27" t="s">
@@ -3852,7 +3889,9 @@
       <c r="E13" s="31">
         <v>4</v>
       </c>
-      <c r="F13" s="37"/>
+      <c r="F13" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
       <c r="I13" s="27" t="s">
@@ -3895,7 +3934,9 @@
       <c r="E14" s="31">
         <v>1</v>
       </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
       <c r="I14" s="27" t="s">
@@ -3938,7 +3979,9 @@
       <c r="E15" s="31">
         <v>3</v>
       </c>
-      <c r="F15" s="37"/>
+      <c r="F15" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="27" t="s">
@@ -3947,7 +3990,7 @@
       <c r="J15" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="74" t="s">
         <v>309</v>
       </c>
       <c r="L15" s="40" t="s">
@@ -3981,7 +4024,9 @@
       <c r="E16" s="31">
         <v>4</v>
       </c>
-      <c r="F16" s="37"/>
+      <c r="F16" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
       <c r="I16" s="27" t="s">
@@ -4024,7 +4069,9 @@
       <c r="E17" s="31">
         <v>2</v>
       </c>
-      <c r="F17" s="37"/>
+      <c r="F17" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
       <c r="I17" s="27" t="s">
@@ -4067,7 +4114,9 @@
       <c r="E18" s="31">
         <v>1</v>
       </c>
-      <c r="F18" s="37"/>
+      <c r="F18" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
@@ -4102,7 +4151,9 @@
       <c r="E19" s="31">
         <v>4</v>
       </c>
-      <c r="F19" s="37"/>
+      <c r="F19" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
@@ -4137,7 +4188,9 @@
       <c r="E20" s="31">
         <v>4</v>
       </c>
-      <c r="F20" s="37"/>
+      <c r="F20" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
       <c r="I20" s="37"/>
@@ -4172,7 +4225,9 @@
       <c r="E21" s="31">
         <v>4</v>
       </c>
-      <c r="F21" s="37"/>
+      <c r="F21" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
@@ -4207,7 +4262,9 @@
       <c r="E22" s="31">
         <v>2</v>
       </c>
-      <c r="F22" s="37"/>
+      <c r="F22" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
@@ -4242,7 +4299,9 @@
       <c r="E23" s="31">
         <v>2</v>
       </c>
-      <c r="F23" s="37"/>
+      <c r="F23" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
@@ -4277,7 +4336,9 @@
       <c r="E24" s="31">
         <v>4</v>
       </c>
-      <c r="F24" s="37"/>
+      <c r="F24" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
       <c r="I24" s="37"/>
@@ -4312,7 +4373,9 @@
       <c r="E25" s="31">
         <v>3</v>
       </c>
-      <c r="F25" s="37"/>
+      <c r="F25" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
@@ -4347,7 +4410,9 @@
       <c r="E26" s="31">
         <v>2</v>
       </c>
-      <c r="F26" s="37"/>
+      <c r="F26" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
@@ -4382,7 +4447,9 @@
       <c r="E27" s="31">
         <v>3</v>
       </c>
-      <c r="F27" s="37"/>
+      <c r="F27" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
@@ -4417,7 +4484,9 @@
       <c r="E28" s="31">
         <v>4</v>
       </c>
-      <c r="F28" s="37"/>
+      <c r="F28" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
       <c r="I28" s="37"/>
@@ -4452,7 +4521,9 @@
       <c r="E29" s="31">
         <v>1</v>
       </c>
-      <c r="F29" s="37"/>
+      <c r="F29" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
@@ -4487,7 +4558,9 @@
       <c r="E30" s="31">
         <v>3</v>
       </c>
-      <c r="F30" s="37"/>
+      <c r="F30" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
       <c r="I30" s="37"/>
@@ -4522,7 +4595,9 @@
       <c r="E31" s="31">
         <v>1</v>
       </c>
-      <c r="F31" s="37"/>
+      <c r="F31" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="37"/>
@@ -4557,7 +4632,9 @@
       <c r="E32" s="31">
         <v>2</v>
       </c>
-      <c r="F32" s="37"/>
+      <c r="F32" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
       <c r="I32" s="37"/>
@@ -4592,7 +4669,9 @@
       <c r="E33" s="31">
         <v>2</v>
       </c>
-      <c r="F33" s="37"/>
+      <c r="F33" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
       <c r="I33" s="37"/>
@@ -4627,7 +4706,9 @@
       <c r="E34" s="31">
         <v>3</v>
       </c>
-      <c r="F34" s="37"/>
+      <c r="F34" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
@@ -4662,7 +4743,9 @@
       <c r="E35" s="31">
         <v>3</v>
       </c>
-      <c r="F35" s="37"/>
+      <c r="F35" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
       <c r="I35" s="37"/>
@@ -4697,7 +4780,9 @@
       <c r="E36" s="31">
         <v>1</v>
       </c>
-      <c r="F36" s="37"/>
+      <c r="F36" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
@@ -4732,7 +4817,9 @@
       <c r="E37" s="31">
         <v>3</v>
       </c>
-      <c r="F37" s="37"/>
+      <c r="F37" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
       <c r="I37" s="37"/>
@@ -4767,7 +4854,9 @@
       <c r="E38" s="31">
         <v>2</v>
       </c>
-      <c r="F38" s="37"/>
+      <c r="F38" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
       <c r="I38" s="37"/>
@@ -4802,7 +4891,9 @@
       <c r="E39" s="31">
         <v>3</v>
       </c>
-      <c r="F39" s="37"/>
+      <c r="F39" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
       <c r="I39" s="37"/>
@@ -4837,7 +4928,9 @@
       <c r="E40" s="31">
         <v>4</v>
       </c>
-      <c r="F40" s="37"/>
+      <c r="F40" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G40" s="37"/>
       <c r="H40" s="37"/>
       <c r="I40" s="37"/>
@@ -4872,7 +4965,9 @@
       <c r="E41" s="31">
         <v>1</v>
       </c>
-      <c r="F41" s="37"/>
+      <c r="F41" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
       <c r="I41" s="37"/>
@@ -4907,7 +5002,9 @@
       <c r="E42" s="31">
         <v>3</v>
       </c>
-      <c r="F42" s="37"/>
+      <c r="F42" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
@@ -4942,7 +5039,9 @@
       <c r="E43" s="31">
         <v>4</v>
       </c>
-      <c r="F43" s="37"/>
+      <c r="F43" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
       <c r="I43" s="37"/>
@@ -4977,7 +5076,9 @@
       <c r="E44" s="31">
         <v>4</v>
       </c>
-      <c r="F44" s="37"/>
+      <c r="F44" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
       <c r="I44" s="37"/>
@@ -5012,7 +5113,9 @@
       <c r="E45" s="31">
         <v>4</v>
       </c>
-      <c r="F45" s="37"/>
+      <c r="F45" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
@@ -5047,7 +5150,9 @@
       <c r="E46" s="31">
         <v>4</v>
       </c>
-      <c r="F46" s="37"/>
+      <c r="F46" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
@@ -5082,7 +5187,9 @@
       <c r="E47" s="31">
         <v>2</v>
       </c>
-      <c r="F47" s="37"/>
+      <c r="F47" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G47" s="37"/>
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
@@ -5117,7 +5224,9 @@
       <c r="E48" s="31">
         <v>2</v>
       </c>
-      <c r="F48" s="37"/>
+      <c r="F48" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G48" s="37"/>
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
@@ -5152,7 +5261,9 @@
       <c r="E49" s="31">
         <v>2</v>
       </c>
-      <c r="F49" s="37"/>
+      <c r="F49" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G49" s="37"/>
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
@@ -5187,7 +5298,9 @@
       <c r="E50" s="31">
         <v>1</v>
       </c>
-      <c r="F50" s="37"/>
+      <c r="F50" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G50" s="37"/>
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
@@ -5222,7 +5335,9 @@
       <c r="E51" s="31">
         <v>1</v>
       </c>
-      <c r="F51" s="37"/>
+      <c r="F51" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G51" s="37"/>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
@@ -5257,7 +5372,9 @@
       <c r="E52" s="31">
         <v>2</v>
       </c>
-      <c r="F52" s="37"/>
+      <c r="F52" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
@@ -5292,7 +5409,9 @@
       <c r="E53" s="31">
         <v>2</v>
       </c>
-      <c r="F53" s="37"/>
+      <c r="F53" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G53" s="37"/>
       <c r="H53" s="37"/>
       <c r="I53" s="37"/>
@@ -5327,7 +5446,9 @@
       <c r="E54" s="31">
         <v>1</v>
       </c>
-      <c r="F54" s="37"/>
+      <c r="F54" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
       <c r="I54" s="37"/>
@@ -5362,7 +5483,9 @@
       <c r="E55" s="31">
         <v>3</v>
       </c>
-      <c r="F55" s="37"/>
+      <c r="F55" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
       <c r="I55" s="37"/>
@@ -5397,7 +5520,9 @@
       <c r="E56" s="31">
         <v>3</v>
       </c>
-      <c r="F56" s="37"/>
+      <c r="F56" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G56" s="37"/>
       <c r="H56" s="37"/>
       <c r="I56" s="37"/>
@@ -5432,7 +5557,9 @@
       <c r="E57" s="31">
         <v>1</v>
       </c>
-      <c r="F57" s="37"/>
+      <c r="F57" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G57" s="37"/>
       <c r="H57" s="37"/>
       <c r="I57" s="37"/>
@@ -5467,7 +5594,9 @@
       <c r="E58" s="31">
         <v>2</v>
       </c>
-      <c r="F58" s="37"/>
+      <c r="F58" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
       <c r="I58" s="37"/>
@@ -5502,7 +5631,9 @@
       <c r="E59" s="31">
         <v>3</v>
       </c>
-      <c r="F59" s="37"/>
+      <c r="F59" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G59" s="37"/>
       <c r="H59" s="37"/>
       <c r="I59" s="37"/>
@@ -5537,7 +5668,9 @@
       <c r="E60" s="31">
         <v>4</v>
       </c>
-      <c r="F60" s="37"/>
+      <c r="F60" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
       <c r="I60" s="37"/>
@@ -5572,7 +5705,9 @@
       <c r="E61" s="31">
         <v>2</v>
       </c>
-      <c r="F61" s="37"/>
+      <c r="F61" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
@@ -5607,7 +5742,9 @@
       <c r="E62" s="31">
         <v>4</v>
       </c>
-      <c r="F62" s="37"/>
+      <c r="F62" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
       <c r="I62" s="37"/>
@@ -5642,7 +5779,9 @@
       <c r="E63" s="31">
         <v>3</v>
       </c>
-      <c r="F63" s="37"/>
+      <c r="F63" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G63" s="37"/>
       <c r="H63" s="37"/>
       <c r="I63" s="37"/>
@@ -5677,7 +5816,9 @@
       <c r="E64" s="31">
         <v>1</v>
       </c>
-      <c r="F64" s="37"/>
+      <c r="F64" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
       <c r="I64" s="37"/>
@@ -5712,7 +5853,9 @@
       <c r="E65" s="31">
         <v>4</v>
       </c>
-      <c r="F65" s="37"/>
+      <c r="F65" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G65" s="37"/>
       <c r="H65" s="37"/>
       <c r="I65" s="37"/>
@@ -5747,7 +5890,9 @@
       <c r="E66" s="31">
         <v>3</v>
       </c>
-      <c r="F66" s="37"/>
+      <c r="F66" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
       <c r="I66" s="37"/>
@@ -5782,7 +5927,9 @@
       <c r="E67" s="31">
         <v>1</v>
       </c>
-      <c r="F67" s="37"/>
+      <c r="F67" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
       <c r="I67" s="37"/>
@@ -5817,7 +5964,9 @@
       <c r="E68" s="31">
         <v>2</v>
       </c>
-      <c r="F68" s="37"/>
+      <c r="F68" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
       <c r="I68" s="37"/>
@@ -5852,7 +6001,9 @@
       <c r="E69" s="31">
         <v>4</v>
       </c>
-      <c r="F69" s="37"/>
+      <c r="F69" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
       <c r="I69" s="37"/>
@@ -5887,7 +6038,9 @@
       <c r="E70" s="31">
         <v>4</v>
       </c>
-      <c r="F70" s="37"/>
+      <c r="F70" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
       <c r="I70" s="37"/>
@@ -5922,7 +6075,9 @@
       <c r="E71" s="31">
         <v>3</v>
       </c>
-      <c r="F71" s="37"/>
+      <c r="F71" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G71" s="37"/>
       <c r="H71" s="37"/>
       <c r="I71" s="37"/>
@@ -5957,7 +6112,9 @@
       <c r="E72" s="31">
         <v>4</v>
       </c>
-      <c r="F72" s="37"/>
+      <c r="F72" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G72" s="37"/>
       <c r="H72" s="37"/>
       <c r="I72" s="37"/>
@@ -5992,7 +6149,9 @@
       <c r="E73" s="31">
         <v>2</v>
       </c>
-      <c r="F73" s="37"/>
+      <c r="F73" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G73" s="37"/>
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
@@ -6027,7 +6186,9 @@
       <c r="E74" s="31">
         <v>3</v>
       </c>
-      <c r="F74" s="37"/>
+      <c r="F74" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G74" s="37"/>
       <c r="H74" s="37"/>
       <c r="I74" s="37"/>
@@ -6062,7 +6223,9 @@
       <c r="E75" s="31">
         <v>3</v>
       </c>
-      <c r="F75" s="37"/>
+      <c r="F75" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G75" s="37"/>
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
@@ -6097,7 +6260,9 @@
       <c r="E76" s="31">
         <v>2</v>
       </c>
-      <c r="F76" s="37"/>
+      <c r="F76" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G76" s="37"/>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
@@ -6132,7 +6297,9 @@
       <c r="E77" s="31">
         <v>4</v>
       </c>
-      <c r="F77" s="37"/>
+      <c r="F77" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G77" s="37"/>
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
@@ -6167,7 +6334,9 @@
       <c r="E78" s="31">
         <v>4</v>
       </c>
-      <c r="F78" s="37"/>
+      <c r="F78" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G78" s="37"/>
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
@@ -6202,7 +6371,9 @@
       <c r="E79" s="31">
         <v>1</v>
       </c>
-      <c r="F79" s="37"/>
+      <c r="F79" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G79" s="37"/>
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
@@ -6237,7 +6408,9 @@
       <c r="E80" s="31">
         <v>4</v>
       </c>
-      <c r="F80" s="37"/>
+      <c r="F80" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G80" s="37"/>
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
@@ -6272,7 +6445,9 @@
       <c r="E81" s="31">
         <v>2</v>
       </c>
-      <c r="F81" s="37"/>
+      <c r="F81" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G81" s="37"/>
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
@@ -6307,7 +6482,9 @@
       <c r="E82" s="31">
         <v>4</v>
       </c>
-      <c r="F82" s="37"/>
+      <c r="F82" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G82" s="37"/>
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
@@ -6342,7 +6519,9 @@
       <c r="E83" s="31">
         <v>2</v>
       </c>
-      <c r="F83" s="37"/>
+      <c r="F83" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G83" s="37"/>
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
@@ -6377,7 +6556,9 @@
       <c r="E84" s="31">
         <v>1</v>
       </c>
-      <c r="F84" s="37"/>
+      <c r="F84" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G84" s="37"/>
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
@@ -6412,7 +6593,9 @@
       <c r="E85" s="31">
         <v>1</v>
       </c>
-      <c r="F85" s="37"/>
+      <c r="F85" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G85" s="37"/>
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
@@ -6447,7 +6630,9 @@
       <c r="E86" s="31">
         <v>4</v>
       </c>
-      <c r="F86" s="37"/>
+      <c r="F86" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G86" s="37"/>
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
@@ -6482,7 +6667,9 @@
       <c r="E87" s="31">
         <v>2</v>
       </c>
-      <c r="F87" s="37"/>
+      <c r="F87" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G87" s="37"/>
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
@@ -6517,7 +6704,9 @@
       <c r="E88" s="31">
         <v>3</v>
       </c>
-      <c r="F88" s="37"/>
+      <c r="F88" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G88" s="37"/>
       <c r="H88" s="37"/>
       <c r="I88" s="37"/>
@@ -6552,7 +6741,9 @@
       <c r="E89" s="31">
         <v>1</v>
       </c>
-      <c r="F89" s="37"/>
+      <c r="F89" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G89" s="37"/>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
@@ -6587,7 +6778,9 @@
       <c r="E90" s="31">
         <v>1</v>
       </c>
-      <c r="F90" s="37"/>
+      <c r="F90" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G90" s="37"/>
       <c r="H90" s="37"/>
       <c r="I90" s="37"/>
@@ -6622,7 +6815,9 @@
       <c r="E91" s="31">
         <v>3</v>
       </c>
-      <c r="F91" s="37"/>
+      <c r="F91" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G91" s="37"/>
       <c r="H91" s="37"/>
       <c r="I91" s="37"/>
@@ -6657,7 +6852,9 @@
       <c r="E92" s="31">
         <v>2</v>
       </c>
-      <c r="F92" s="37"/>
+      <c r="F92" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G92" s="37"/>
       <c r="H92" s="37"/>
       <c r="I92" s="37"/>
@@ -6692,7 +6889,9 @@
       <c r="E93" s="31">
         <v>3</v>
       </c>
-      <c r="F93" s="37"/>
+      <c r="F93" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G93" s="37"/>
       <c r="H93" s="37"/>
       <c r="I93" s="37"/>
@@ -6727,7 +6926,9 @@
       <c r="E94" s="31">
         <v>4</v>
       </c>
-      <c r="F94" s="37"/>
+      <c r="F94" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G94" s="37"/>
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
@@ -6762,7 +6963,9 @@
       <c r="E95" s="31">
         <v>1</v>
       </c>
-      <c r="F95" s="37"/>
+      <c r="F95" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G95" s="37"/>
       <c r="H95" s="37"/>
       <c r="I95" s="37"/>
@@ -6797,7 +7000,9 @@
       <c r="E96" s="31">
         <v>1</v>
       </c>
-      <c r="F96" s="37"/>
+      <c r="F96" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G96" s="37"/>
       <c r="H96" s="37"/>
       <c r="I96" s="37"/>
@@ -6832,7 +7037,9 @@
       <c r="E97" s="31">
         <v>3</v>
       </c>
-      <c r="F97" s="37"/>
+      <c r="F97" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G97" s="37"/>
       <c r="H97" s="37"/>
       <c r="I97" s="37"/>
@@ -6867,7 +7074,9 @@
       <c r="E98" s="31">
         <v>3</v>
       </c>
-      <c r="F98" s="37"/>
+      <c r="F98" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G98" s="37"/>
       <c r="H98" s="37"/>
       <c r="I98" s="37"/>
@@ -6902,7 +7111,9 @@
       <c r="E99" s="31">
         <v>2</v>
       </c>
-      <c r="F99" s="37"/>
+      <c r="F99" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G99" s="37"/>
       <c r="H99" s="37"/>
       <c r="I99" s="37"/>
@@ -6937,7 +7148,9 @@
       <c r="E100" s="31">
         <v>2</v>
       </c>
-      <c r="F100" s="37"/>
+      <c r="F100" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G100" s="37"/>
       <c r="H100" s="37"/>
       <c r="I100" s="37"/>
@@ -6972,7 +7185,9 @@
       <c r="E101" s="31">
         <v>2</v>
       </c>
-      <c r="F101" s="37"/>
+      <c r="F101" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G101" s="37"/>
       <c r="H101" s="37"/>
       <c r="I101" s="37"/>
@@ -7007,7 +7222,9 @@
       <c r="E102" s="31">
         <v>4</v>
       </c>
-      <c r="F102" s="37"/>
+      <c r="F102" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G102" s="37"/>
       <c r="H102" s="37"/>
       <c r="I102" s="37"/>
@@ -7042,7 +7259,9 @@
       <c r="E103" s="31">
         <v>4</v>
       </c>
-      <c r="F103" s="37"/>
+      <c r="F103" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G103" s="37"/>
       <c r="H103" s="37"/>
       <c r="I103" s="37"/>
@@ -7077,7 +7296,9 @@
       <c r="E104" s="31">
         <v>4</v>
       </c>
-      <c r="F104" s="37"/>
+      <c r="F104" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G104" s="37"/>
       <c r="H104" s="37"/>
       <c r="I104" s="37"/>
@@ -7112,7 +7333,9 @@
       <c r="E105" s="31">
         <v>1</v>
       </c>
-      <c r="F105" s="37"/>
+      <c r="F105" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G105" s="37"/>
       <c r="H105" s="37"/>
       <c r="I105" s="37"/>
@@ -7147,7 +7370,9 @@
       <c r="E106" s="31">
         <v>1</v>
       </c>
-      <c r="F106" s="37"/>
+      <c r="F106" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G106" s="37"/>
       <c r="H106" s="37"/>
       <c r="I106" s="37"/>
@@ -7182,7 +7407,9 @@
       <c r="E107" s="31">
         <v>3</v>
       </c>
-      <c r="F107" s="37"/>
+      <c r="F107" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G107" s="37"/>
       <c r="H107" s="37"/>
       <c r="I107" s="37"/>
@@ -7217,7 +7444,9 @@
       <c r="E108" s="31">
         <v>4</v>
       </c>
-      <c r="F108" s="37"/>
+      <c r="F108" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G108" s="37"/>
       <c r="H108" s="37"/>
       <c r="I108" s="37"/>
@@ -7252,7 +7481,9 @@
       <c r="E109" s="31">
         <v>2</v>
       </c>
-      <c r="F109" s="37"/>
+      <c r="F109" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G109" s="37"/>
       <c r="H109" s="37"/>
       <c r="I109" s="37"/>
@@ -7287,7 +7518,9 @@
       <c r="E110" s="31">
         <v>2</v>
       </c>
-      <c r="F110" s="37"/>
+      <c r="F110" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G110" s="37"/>
       <c r="H110" s="37"/>
       <c r="I110" s="37"/>
@@ -7322,7 +7555,9 @@
       <c r="E111" s="31">
         <v>4</v>
       </c>
-      <c r="F111" s="37"/>
+      <c r="F111" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G111" s="37"/>
       <c r="H111" s="37"/>
       <c r="I111" s="37"/>
@@ -7357,7 +7592,9 @@
       <c r="E112" s="31">
         <v>3</v>
       </c>
-      <c r="F112" s="37"/>
+      <c r="F112" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G112" s="37"/>
       <c r="H112" s="37"/>
       <c r="I112" s="37"/>
@@ -7392,7 +7629,9 @@
       <c r="E113" s="31">
         <v>1</v>
       </c>
-      <c r="F113" s="37"/>
+      <c r="F113" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G113" s="37"/>
       <c r="H113" s="37"/>
       <c r="I113" s="37"/>
@@ -7427,7 +7666,9 @@
       <c r="E114" s="31">
         <v>3</v>
       </c>
-      <c r="F114" s="37"/>
+      <c r="F114" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G114" s="37"/>
       <c r="H114" s="37"/>
       <c r="I114" s="37"/>
@@ -7462,7 +7703,9 @@
       <c r="E115" s="31">
         <v>2</v>
       </c>
-      <c r="F115" s="37"/>
+      <c r="F115" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G115" s="37"/>
       <c r="H115" s="37"/>
       <c r="I115" s="37"/>
@@ -7497,7 +7740,9 @@
       <c r="E116" s="31">
         <v>3</v>
       </c>
-      <c r="F116" s="37"/>
+      <c r="F116" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G116" s="37"/>
       <c r="H116" s="37"/>
       <c r="I116" s="37"/>
@@ -7532,7 +7777,9 @@
       <c r="E117" s="31">
         <v>4</v>
       </c>
-      <c r="F117" s="37"/>
+      <c r="F117" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G117" s="37"/>
       <c r="H117" s="37"/>
       <c r="I117" s="37"/>
@@ -7567,7 +7814,9 @@
       <c r="E118" s="31">
         <v>4</v>
       </c>
-      <c r="F118" s="37"/>
+      <c r="F118" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G118" s="37"/>
       <c r="H118" s="37"/>
       <c r="I118" s="37"/>
@@ -7602,7 +7851,9 @@
       <c r="E119" s="31">
         <v>3</v>
       </c>
-      <c r="F119" s="37"/>
+      <c r="F119" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G119" s="37"/>
       <c r="H119" s="37"/>
       <c r="I119" s="37"/>
@@ -7637,7 +7888,9 @@
       <c r="E120" s="31">
         <v>4</v>
       </c>
-      <c r="F120" s="37"/>
+      <c r="F120" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G120" s="37"/>
       <c r="H120" s="37"/>
       <c r="I120" s="37"/>
@@ -7672,7 +7925,9 @@
       <c r="E121" s="31">
         <v>2</v>
       </c>
-      <c r="F121" s="37"/>
+      <c r="F121" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G121" s="37"/>
       <c r="H121" s="37"/>
       <c r="I121" s="37"/>
@@ -7707,7 +7962,9 @@
       <c r="E122" s="31">
         <v>1</v>
       </c>
-      <c r="F122" s="37"/>
+      <c r="F122" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G122" s="37"/>
       <c r="H122" s="37"/>
       <c r="I122" s="37"/>
@@ -7742,7 +7999,9 @@
       <c r="E123" s="31">
         <v>3</v>
       </c>
-      <c r="F123" s="37"/>
+      <c r="F123" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
       <c r="I123" s="37"/>
@@ -7777,7 +8036,9 @@
       <c r="E124" s="31">
         <v>1</v>
       </c>
-      <c r="F124" s="37"/>
+      <c r="F124" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G124" s="37"/>
       <c r="H124" s="37"/>
       <c r="I124" s="37"/>
@@ -7812,7 +8073,9 @@
       <c r="E125" s="31">
         <v>1</v>
       </c>
-      <c r="F125" s="37"/>
+      <c r="F125" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
       <c r="I125" s="37"/>
@@ -7847,7 +8110,9 @@
       <c r="E126" s="31">
         <v>2</v>
       </c>
-      <c r="F126" s="37"/>
+      <c r="F126" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
       <c r="I126" s="37"/>
@@ -7882,7 +8147,9 @@
       <c r="E127" s="31">
         <v>1</v>
       </c>
-      <c r="F127" s="37"/>
+      <c r="F127" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
       <c r="I127" s="37"/>
@@ -7917,7 +8184,9 @@
       <c r="E128" s="31">
         <v>2</v>
       </c>
-      <c r="F128" s="37"/>
+      <c r="F128" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
       <c r="I128" s="37"/>
@@ -7952,7 +8221,9 @@
       <c r="E129" s="31">
         <v>3</v>
       </c>
-      <c r="F129" s="37"/>
+      <c r="F129" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
       <c r="I129" s="37"/>
@@ -7987,7 +8258,9 @@
       <c r="E130" s="31">
         <v>1</v>
       </c>
-      <c r="F130" s="37"/>
+      <c r="F130" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G130" s="37"/>
       <c r="H130" s="37"/>
       <c r="I130" s="37"/>
@@ -8022,7 +8295,9 @@
       <c r="E131" s="31">
         <v>4</v>
       </c>
-      <c r="F131" s="37"/>
+      <c r="F131" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
       <c r="I131" s="37"/>
@@ -8057,7 +8332,9 @@
       <c r="E132" s="31">
         <v>4</v>
       </c>
-      <c r="F132" s="37"/>
+      <c r="F132" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G132" s="37"/>
       <c r="H132" s="37"/>
       <c r="I132" s="37"/>
@@ -8092,7 +8369,9 @@
       <c r="E133" s="31">
         <v>2</v>
       </c>
-      <c r="F133" s="37"/>
+      <c r="F133" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
       <c r="I133" s="37"/>
@@ -8127,7 +8406,9 @@
       <c r="E134" s="31">
         <v>2</v>
       </c>
-      <c r="F134" s="37"/>
+      <c r="F134" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G134" s="37"/>
       <c r="H134" s="37"/>
       <c r="I134" s="37"/>
@@ -8162,7 +8443,9 @@
       <c r="E135" s="31">
         <v>2</v>
       </c>
-      <c r="F135" s="37"/>
+      <c r="F135" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G135" s="37"/>
       <c r="H135" s="37"/>
       <c r="I135" s="37"/>
@@ -8197,7 +8480,9 @@
       <c r="E136" s="31">
         <v>3</v>
       </c>
-      <c r="F136" s="37"/>
+      <c r="F136" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G136" s="37"/>
       <c r="H136" s="37"/>
       <c r="I136" s="37"/>
@@ -8232,7 +8517,9 @@
       <c r="E137" s="31">
         <v>3</v>
       </c>
-      <c r="F137" s="37"/>
+      <c r="F137" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G137" s="37"/>
       <c r="H137" s="37"/>
       <c r="I137" s="37"/>
@@ -8267,7 +8554,9 @@
       <c r="E138" s="31">
         <v>1</v>
       </c>
-      <c r="F138" s="37"/>
+      <c r="F138" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G138" s="37"/>
       <c r="H138" s="37"/>
       <c r="I138" s="37"/>
@@ -8302,7 +8591,9 @@
       <c r="E139" s="31">
         <v>1</v>
       </c>
-      <c r="F139" s="37"/>
+      <c r="F139" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G139" s="37"/>
       <c r="H139" s="37"/>
       <c r="I139" s="37"/>
@@ -8337,7 +8628,9 @@
       <c r="E140" s="31">
         <v>4</v>
       </c>
-      <c r="F140" s="37"/>
+      <c r="F140" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G140" s="37"/>
       <c r="H140" s="37"/>
       <c r="I140" s="37"/>
@@ -8372,7 +8665,9 @@
       <c r="E141" s="31">
         <v>4</v>
       </c>
-      <c r="F141" s="37"/>
+      <c r="F141" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G141" s="37"/>
       <c r="H141" s="37"/>
       <c r="I141" s="37"/>
@@ -8407,7 +8702,9 @@
       <c r="E142" s="31">
         <v>3</v>
       </c>
-      <c r="F142" s="37"/>
+      <c r="F142" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G142" s="37"/>
       <c r="H142" s="37"/>
       <c r="I142" s="37"/>
@@ -8442,7 +8739,9 @@
       <c r="E143" s="31">
         <v>4</v>
       </c>
-      <c r="F143" s="37"/>
+      <c r="F143" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G143" s="37"/>
       <c r="H143" s="37"/>
       <c r="I143" s="37"/>
@@ -8477,7 +8776,9 @@
       <c r="E144" s="31">
         <v>4</v>
       </c>
-      <c r="F144" s="37"/>
+      <c r="F144" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G144" s="37"/>
       <c r="H144" s="37"/>
       <c r="I144" s="37"/>
@@ -8512,7 +8813,9 @@
       <c r="E145" s="31">
         <v>3</v>
       </c>
-      <c r="F145" s="37"/>
+      <c r="F145" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G145" s="37"/>
       <c r="H145" s="37"/>
       <c r="I145" s="37"/>
@@ -8547,7 +8850,9 @@
       <c r="E146" s="31">
         <v>1</v>
       </c>
-      <c r="F146" s="37"/>
+      <c r="F146" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G146" s="37"/>
       <c r="H146" s="37"/>
       <c r="I146" s="37"/>
@@ -8582,7 +8887,9 @@
       <c r="E147" s="31">
         <v>1</v>
       </c>
-      <c r="F147" s="37"/>
+      <c r="F147" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G147" s="37"/>
       <c r="H147" s="37"/>
       <c r="I147" s="37"/>
@@ -8617,7 +8924,9 @@
       <c r="E148" s="31">
         <v>4</v>
       </c>
-      <c r="F148" s="37"/>
+      <c r="F148" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G148" s="37"/>
       <c r="H148" s="37"/>
       <c r="I148" s="37"/>
@@ -8652,7 +8961,9 @@
       <c r="E149" s="31">
         <v>1</v>
       </c>
-      <c r="F149" s="37"/>
+      <c r="F149" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G149" s="37"/>
       <c r="H149" s="37"/>
       <c r="I149" s="37"/>
@@ -8687,7 +8998,9 @@
       <c r="E150" s="31">
         <v>2</v>
       </c>
-      <c r="F150" s="37"/>
+      <c r="F150" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G150" s="37"/>
       <c r="H150" s="37"/>
       <c r="I150" s="37"/>
@@ -8722,7 +9035,9 @@
       <c r="E151" s="31">
         <v>2</v>
       </c>
-      <c r="F151" s="37"/>
+      <c r="F151" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G151" s="37"/>
       <c r="H151" s="37"/>
       <c r="I151" s="37"/>
@@ -8757,7 +9072,9 @@
       <c r="E152" s="31">
         <v>3</v>
       </c>
-      <c r="F152" s="37"/>
+      <c r="F152" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G152" s="37"/>
       <c r="H152" s="37"/>
       <c r="I152" s="37"/>
@@ -8792,7 +9109,9 @@
       <c r="E153" s="31">
         <v>4</v>
       </c>
-      <c r="F153" s="37"/>
+      <c r="F153" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G153" s="37"/>
       <c r="H153" s="37"/>
       <c r="I153" s="37"/>
@@ -8827,7 +9146,9 @@
       <c r="E154" s="31">
         <v>3</v>
       </c>
-      <c r="F154" s="37"/>
+      <c r="F154" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G154" s="37"/>
       <c r="H154" s="37"/>
       <c r="I154" s="37"/>
@@ -8862,7 +9183,9 @@
       <c r="E155" s="31">
         <v>2</v>
       </c>
-      <c r="F155" s="37"/>
+      <c r="F155" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G155" s="37"/>
       <c r="H155" s="37"/>
       <c r="I155" s="37"/>
@@ -8897,7 +9220,9 @@
       <c r="E156" s="31">
         <v>3</v>
       </c>
-      <c r="F156" s="37"/>
+      <c r="F156" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G156" s="37"/>
       <c r="H156" s="37"/>
       <c r="I156" s="37"/>
@@ -8932,7 +9257,9 @@
       <c r="E157" s="31">
         <v>4</v>
       </c>
-      <c r="F157" s="37"/>
+      <c r="F157" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G157" s="37"/>
       <c r="H157" s="37"/>
       <c r="I157" s="37"/>
@@ -8967,7 +9294,9 @@
       <c r="E158" s="31">
         <v>1</v>
       </c>
-      <c r="F158" s="37"/>
+      <c r="F158" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G158" s="37"/>
       <c r="H158" s="37"/>
       <c r="I158" s="37"/>
@@ -9002,7 +9331,9 @@
       <c r="E159" s="31">
         <v>1</v>
       </c>
-      <c r="F159" s="37"/>
+      <c r="F159" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G159" s="37"/>
       <c r="H159" s="37"/>
       <c r="I159" s="37"/>
@@ -9037,7 +9368,9 @@
       <c r="E160" s="31">
         <v>3</v>
       </c>
-      <c r="F160" s="37"/>
+      <c r="F160" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G160" s="37"/>
       <c r="H160" s="37"/>
       <c r="I160" s="37"/>
@@ -9072,7 +9405,9 @@
       <c r="E161" s="31">
         <v>2</v>
       </c>
-      <c r="F161" s="37"/>
+      <c r="F161" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G161" s="37"/>
       <c r="H161" s="37"/>
       <c r="I161" s="37"/>
@@ -9107,7 +9442,9 @@
       <c r="E162" s="31">
         <v>2</v>
       </c>
-      <c r="F162" s="37"/>
+      <c r="F162" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G162" s="37"/>
       <c r="H162" s="37"/>
       <c r="I162" s="37"/>
@@ -9142,7 +9479,9 @@
       <c r="E163" s="31">
         <v>3</v>
       </c>
-      <c r="F163" s="37"/>
+      <c r="F163" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G163" s="37"/>
       <c r="H163" s="37"/>
       <c r="I163" s="37"/>
@@ -9177,7 +9516,9 @@
       <c r="E164" s="31">
         <v>2</v>
       </c>
-      <c r="F164" s="37"/>
+      <c r="F164" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G164" s="37"/>
       <c r="H164" s="37"/>
       <c r="I164" s="37"/>
@@ -9212,7 +9553,9 @@
       <c r="E165" s="31">
         <v>2</v>
       </c>
-      <c r="F165" s="37"/>
+      <c r="F165" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G165" s="37"/>
       <c r="H165" s="37"/>
       <c r="I165" s="37"/>
@@ -9247,7 +9590,9 @@
       <c r="E166" s="31">
         <v>2</v>
       </c>
-      <c r="F166" s="37"/>
+      <c r="F166" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G166" s="37"/>
       <c r="H166" s="37"/>
       <c r="I166" s="37"/>
@@ -9282,7 +9627,9 @@
       <c r="E167" s="31">
         <v>4</v>
       </c>
-      <c r="F167" s="37"/>
+      <c r="F167" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G167" s="37"/>
       <c r="H167" s="37"/>
       <c r="I167" s="37"/>
@@ -9317,7 +9664,9 @@
       <c r="E168" s="31">
         <v>4</v>
       </c>
-      <c r="F168" s="37"/>
+      <c r="F168" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G168" s="37"/>
       <c r="H168" s="37"/>
       <c r="I168" s="37"/>
@@ -9352,7 +9701,9 @@
       <c r="E169" s="31">
         <v>3</v>
       </c>
-      <c r="F169" s="37"/>
+      <c r="F169" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G169" s="37"/>
       <c r="H169" s="37"/>
       <c r="I169" s="37"/>
@@ -9387,7 +9738,9 @@
       <c r="E170" s="31">
         <v>2</v>
       </c>
-      <c r="F170" s="37"/>
+      <c r="F170" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G170" s="37"/>
       <c r="H170" s="37"/>
       <c r="I170" s="37"/>
@@ -9422,7 +9775,9 @@
       <c r="E171" s="31">
         <v>3</v>
       </c>
-      <c r="F171" s="37"/>
+      <c r="F171" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G171" s="37"/>
       <c r="H171" s="37"/>
       <c r="I171" s="37"/>
@@ -9457,7 +9812,9 @@
       <c r="E172" s="31">
         <v>2</v>
       </c>
-      <c r="F172" s="37"/>
+      <c r="F172" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G172" s="37"/>
       <c r="H172" s="37"/>
       <c r="I172" s="37"/>
@@ -9492,7 +9849,9 @@
       <c r="E173" s="31">
         <v>2</v>
       </c>
-      <c r="F173" s="37"/>
+      <c r="F173" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G173" s="37"/>
       <c r="H173" s="37"/>
       <c r="I173" s="37"/>
@@ -9527,7 +9886,9 @@
       <c r="E174" s="31">
         <v>1</v>
       </c>
-      <c r="F174" s="37"/>
+      <c r="F174" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G174" s="37"/>
       <c r="H174" s="37"/>
       <c r="I174" s="37"/>
@@ -9562,7 +9923,9 @@
       <c r="E175" s="31">
         <v>4</v>
       </c>
-      <c r="F175" s="37"/>
+      <c r="F175" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G175" s="37"/>
       <c r="H175" s="37"/>
       <c r="I175" s="37"/>
@@ -9597,7 +9960,9 @@
       <c r="E176" s="31">
         <v>1</v>
       </c>
-      <c r="F176" s="37"/>
+      <c r="F176" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G176" s="37"/>
       <c r="H176" s="37"/>
       <c r="I176" s="37"/>
@@ -9632,7 +9997,9 @@
       <c r="E177" s="31">
         <v>1</v>
       </c>
-      <c r="F177" s="37"/>
+      <c r="F177" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G177" s="37"/>
       <c r="H177" s="37"/>
       <c r="I177" s="37"/>
@@ -9667,7 +10034,9 @@
       <c r="E178" s="31">
         <v>4</v>
       </c>
-      <c r="F178" s="37"/>
+      <c r="F178" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G178" s="37"/>
       <c r="H178" s="37"/>
       <c r="I178" s="37"/>
@@ -9702,7 +10071,9 @@
       <c r="E179" s="31">
         <v>4</v>
       </c>
-      <c r="F179" s="37"/>
+      <c r="F179" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G179" s="37"/>
       <c r="H179" s="37"/>
       <c r="I179" s="37"/>
@@ -9737,7 +10108,9 @@
       <c r="E180" s="31">
         <v>3</v>
       </c>
-      <c r="F180" s="37"/>
+      <c r="F180" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G180" s="37"/>
       <c r="H180" s="37"/>
       <c r="I180" s="37"/>
@@ -9772,7 +10145,9 @@
       <c r="E181" s="31">
         <v>4</v>
       </c>
-      <c r="F181" s="37"/>
+      <c r="F181" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G181" s="37"/>
       <c r="H181" s="37"/>
       <c r="I181" s="37"/>
@@ -9807,7 +10182,9 @@
       <c r="E182" s="31">
         <v>3</v>
       </c>
-      <c r="F182" s="37"/>
+      <c r="F182" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G182" s="37"/>
       <c r="H182" s="37"/>
       <c r="I182" s="37"/>
@@ -9842,7 +10219,9 @@
       <c r="E183" s="31">
         <v>4</v>
       </c>
-      <c r="F183" s="37"/>
+      <c r="F183" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G183" s="37"/>
       <c r="H183" s="37"/>
       <c r="I183" s="37"/>
@@ -9877,7 +10256,9 @@
       <c r="E184" s="31">
         <v>4</v>
       </c>
-      <c r="F184" s="37"/>
+      <c r="F184" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G184" s="37"/>
       <c r="H184" s="37"/>
       <c r="I184" s="37"/>
@@ -9912,7 +10293,9 @@
       <c r="E185" s="31">
         <v>3</v>
       </c>
-      <c r="F185" s="37"/>
+      <c r="F185" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G185" s="37"/>
       <c r="H185" s="37"/>
       <c r="I185" s="37"/>
@@ -9947,7 +10330,9 @@
       <c r="E186" s="31">
         <v>3</v>
       </c>
-      <c r="F186" s="37"/>
+      <c r="F186" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G186" s="37"/>
       <c r="H186" s="37"/>
       <c r="I186" s="37"/>
@@ -9982,7 +10367,9 @@
       <c r="E187" s="31">
         <v>3</v>
       </c>
-      <c r="F187" s="37"/>
+      <c r="F187" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G187" s="37"/>
       <c r="H187" s="37"/>
       <c r="I187" s="37"/>
@@ -10017,7 +10404,9 @@
       <c r="E188" s="31">
         <v>3</v>
       </c>
-      <c r="F188" s="37"/>
+      <c r="F188" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G188" s="37"/>
       <c r="H188" s="37"/>
       <c r="I188" s="37"/>
@@ -10052,7 +10441,9 @@
       <c r="E189" s="31">
         <v>4</v>
       </c>
-      <c r="F189" s="37"/>
+      <c r="F189" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G189" s="37"/>
       <c r="H189" s="37"/>
       <c r="I189" s="37"/>
@@ -10087,7 +10478,9 @@
       <c r="E190" s="31">
         <v>1</v>
       </c>
-      <c r="F190" s="37"/>
+      <c r="F190" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G190" s="37"/>
       <c r="H190" s="37"/>
       <c r="I190" s="37"/>
@@ -10122,7 +10515,9 @@
       <c r="E191" s="31">
         <v>1</v>
       </c>
-      <c r="F191" s="37"/>
+      <c r="F191" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G191" s="37"/>
       <c r="H191" s="37"/>
       <c r="I191" s="37"/>
@@ -10157,7 +10552,9 @@
       <c r="E192" s="31">
         <v>3</v>
       </c>
-      <c r="F192" s="37"/>
+      <c r="F192" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G192" s="37"/>
       <c r="H192" s="37"/>
       <c r="I192" s="37"/>
@@ -10192,7 +10589,9 @@
       <c r="E193" s="31">
         <v>1</v>
       </c>
-      <c r="F193" s="37"/>
+      <c r="F193" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G193" s="37"/>
       <c r="H193" s="37"/>
       <c r="I193" s="37"/>
@@ -10227,7 +10626,9 @@
       <c r="E194" s="31">
         <v>2</v>
       </c>
-      <c r="F194" s="37"/>
+      <c r="F194" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G194" s="37"/>
       <c r="H194" s="37"/>
       <c r="I194" s="37"/>
@@ -10262,7 +10663,9 @@
       <c r="E195" s="31">
         <v>2</v>
       </c>
-      <c r="F195" s="37"/>
+      <c r="F195" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G195" s="37"/>
       <c r="H195" s="37"/>
       <c r="I195" s="37"/>
@@ -10297,7 +10700,9 @@
       <c r="E196" s="31">
         <v>4</v>
       </c>
-      <c r="F196" s="37"/>
+      <c r="F196" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G196" s="37"/>
       <c r="H196" s="37"/>
       <c r="I196" s="37"/>
@@ -10332,7 +10737,9 @@
       <c r="E197" s="31">
         <v>4</v>
       </c>
-      <c r="F197" s="37"/>
+      <c r="F197" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G197" s="37"/>
       <c r="H197" s="37"/>
       <c r="I197" s="37"/>
@@ -10367,7 +10774,9 @@
       <c r="E198" s="31">
         <v>1</v>
       </c>
-      <c r="F198" s="37"/>
+      <c r="F198" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G198" s="37"/>
       <c r="H198" s="37"/>
       <c r="I198" s="37"/>
@@ -10402,7 +10811,9 @@
       <c r="E199" s="31">
         <v>1</v>
       </c>
-      <c r="F199" s="37"/>
+      <c r="F199" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G199" s="37"/>
       <c r="H199" s="37"/>
       <c r="I199" s="37"/>
@@ -10437,7 +10848,9 @@
       <c r="E200" s="31">
         <v>1</v>
       </c>
-      <c r="F200" s="37"/>
+      <c r="F200" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G200" s="37"/>
       <c r="H200" s="37"/>
       <c r="I200" s="37"/>
@@ -10472,7 +10885,9 @@
       <c r="E201" s="31">
         <v>2</v>
       </c>
-      <c r="F201" s="37"/>
+      <c r="F201" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G201" s="37"/>
       <c r="H201" s="37"/>
       <c r="I201" s="37"/>
@@ -10507,7 +10922,9 @@
       <c r="E202" s="31">
         <v>1</v>
       </c>
-      <c r="F202" s="37"/>
+      <c r="F202" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G202" s="37"/>
       <c r="H202" s="37"/>
       <c r="I202" s="37"/>
@@ -10542,7 +10959,9 @@
       <c r="E203" s="31">
         <v>2</v>
       </c>
-      <c r="F203" s="37"/>
+      <c r="F203" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G203" s="37"/>
       <c r="H203" s="37"/>
       <c r="I203" s="37"/>
@@ -10577,7 +10996,9 @@
       <c r="E204" s="31">
         <v>3</v>
       </c>
-      <c r="F204" s="37"/>
+      <c r="F204" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G204" s="37"/>
       <c r="H204" s="37"/>
       <c r="I204" s="37"/>
@@ -10612,7 +11033,9 @@
       <c r="E205" s="31">
         <v>2</v>
       </c>
-      <c r="F205" s="37"/>
+      <c r="F205" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G205" s="37"/>
       <c r="H205" s="37"/>
       <c r="I205" s="37"/>
@@ -10647,7 +11070,9 @@
       <c r="E206" s="31">
         <v>2</v>
       </c>
-      <c r="F206" s="37"/>
+      <c r="F206" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G206" s="37"/>
       <c r="H206" s="37"/>
       <c r="I206" s="37"/>
@@ -10682,7 +11107,9 @@
       <c r="E207" s="31">
         <v>2</v>
       </c>
-      <c r="F207" s="37"/>
+      <c r="F207" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G207" s="37"/>
       <c r="H207" s="37"/>
       <c r="I207" s="37"/>
@@ -10717,7 +11144,9 @@
       <c r="E208" s="31">
         <v>2</v>
       </c>
-      <c r="F208" s="37"/>
+      <c r="F208" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G208" s="37"/>
       <c r="H208" s="37"/>
       <c r="I208" s="37"/>
@@ -10752,7 +11181,9 @@
       <c r="E209" s="31">
         <v>2</v>
       </c>
-      <c r="F209" s="37"/>
+      <c r="F209" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G209" s="37"/>
       <c r="H209" s="37"/>
       <c r="I209" s="37"/>
@@ -10787,7 +11218,9 @@
       <c r="E210" s="31">
         <v>3</v>
       </c>
-      <c r="F210" s="37"/>
+      <c r="F210" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G210" s="37"/>
       <c r="H210" s="37"/>
       <c r="I210" s="37"/>
@@ -10822,7 +11255,9 @@
       <c r="E211" s="31">
         <v>4</v>
       </c>
-      <c r="F211" s="37"/>
+      <c r="F211" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G211" s="37"/>
       <c r="H211" s="37"/>
       <c r="I211" s="37"/>
@@ -10857,7 +11292,9 @@
       <c r="E212" s="31">
         <v>1</v>
       </c>
-      <c r="F212" s="37"/>
+      <c r="F212" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G212" s="37"/>
       <c r="H212" s="37"/>
       <c r="I212" s="37"/>
@@ -10892,7 +11329,9 @@
       <c r="E213" s="31">
         <v>3</v>
       </c>
-      <c r="F213" s="37"/>
+      <c r="F213" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G213" s="37"/>
       <c r="H213" s="37"/>
       <c r="I213" s="37"/>
@@ -10927,7 +11366,9 @@
       <c r="E214" s="31">
         <v>2</v>
       </c>
-      <c r="F214" s="37"/>
+      <c r="F214" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G214" s="37"/>
       <c r="H214" s="37"/>
       <c r="I214" s="37"/>
@@ -10962,7 +11403,9 @@
       <c r="E215" s="31">
         <v>3</v>
       </c>
-      <c r="F215" s="37"/>
+      <c r="F215" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G215" s="37"/>
       <c r="H215" s="37"/>
       <c r="I215" s="37"/>
@@ -10997,7 +11440,9 @@
       <c r="E216" s="31">
         <v>3</v>
       </c>
-      <c r="F216" s="37"/>
+      <c r="F216" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G216" s="37"/>
       <c r="H216" s="37"/>
       <c r="I216" s="37"/>
@@ -11032,7 +11477,9 @@
       <c r="E217" s="31">
         <v>4</v>
       </c>
-      <c r="F217" s="37"/>
+      <c r="F217" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G217" s="37"/>
       <c r="H217" s="37"/>
       <c r="I217" s="37"/>
@@ -11067,7 +11514,9 @@
       <c r="E218" s="31">
         <v>1</v>
       </c>
-      <c r="F218" s="37"/>
+      <c r="F218" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G218" s="37"/>
       <c r="H218" s="37"/>
       <c r="I218" s="37"/>
@@ -11102,7 +11551,9 @@
       <c r="E219" s="31">
         <v>3</v>
       </c>
-      <c r="F219" s="37"/>
+      <c r="F219" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G219" s="37"/>
       <c r="H219" s="37"/>
       <c r="I219" s="37"/>
@@ -11137,7 +11588,9 @@
       <c r="E220" s="31">
         <v>2</v>
       </c>
-      <c r="F220" s="37"/>
+      <c r="F220" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G220" s="37"/>
       <c r="H220" s="37"/>
       <c r="I220" s="37"/>
@@ -11172,7 +11625,9 @@
       <c r="E221" s="31">
         <v>4</v>
       </c>
-      <c r="F221" s="37"/>
+      <c r="F221" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G221" s="37"/>
       <c r="H221" s="37"/>
       <c r="I221" s="37"/>
@@ -11207,7 +11662,9 @@
       <c r="E222" s="31">
         <v>4</v>
       </c>
-      <c r="F222" s="37"/>
+      <c r="F222" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G222" s="37"/>
       <c r="H222" s="37"/>
       <c r="I222" s="37"/>
@@ -11242,7 +11699,9 @@
       <c r="E223" s="31">
         <v>2</v>
       </c>
-      <c r="F223" s="37"/>
+      <c r="F223" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G223" s="37"/>
       <c r="H223" s="37"/>
       <c r="I223" s="37"/>
@@ -11277,7 +11736,9 @@
       <c r="E224" s="31">
         <v>4</v>
       </c>
-      <c r="F224" s="37"/>
+      <c r="F224" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G224" s="37"/>
       <c r="H224" s="37"/>
       <c r="I224" s="37"/>
@@ -11312,7 +11773,9 @@
       <c r="E225" s="31">
         <v>4</v>
       </c>
-      <c r="F225" s="37"/>
+      <c r="F225" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G225" s="37"/>
       <c r="H225" s="37"/>
       <c r="I225" s="37"/>
@@ -11347,7 +11810,9 @@
       <c r="E226" s="31">
         <v>4</v>
       </c>
-      <c r="F226" s="37"/>
+      <c r="F226" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G226" s="37"/>
       <c r="H226" s="37"/>
       <c r="I226" s="37"/>
@@ -11382,7 +11847,9 @@
       <c r="E227" s="31">
         <v>3</v>
       </c>
-      <c r="F227" s="37"/>
+      <c r="F227" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G227" s="37"/>
       <c r="H227" s="37"/>
       <c r="I227" s="37"/>
@@ -11417,7 +11884,9 @@
       <c r="E228" s="31">
         <v>1</v>
       </c>
-      <c r="F228" s="37"/>
+      <c r="F228" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G228" s="37"/>
       <c r="H228" s="37"/>
       <c r="I228" s="37"/>
@@ -11452,7 +11921,9 @@
       <c r="E229" s="31">
         <v>3</v>
       </c>
-      <c r="F229" s="37"/>
+      <c r="F229" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G229" s="37"/>
       <c r="H229" s="37"/>
       <c r="I229" s="37"/>
@@ -11487,7 +11958,9 @@
       <c r="E230" s="31">
         <v>3</v>
       </c>
-      <c r="F230" s="37"/>
+      <c r="F230" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G230" s="37"/>
       <c r="H230" s="37"/>
       <c r="I230" s="37"/>
@@ -11522,7 +11995,9 @@
       <c r="E231" s="31">
         <v>2</v>
       </c>
-      <c r="F231" s="37"/>
+      <c r="F231" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G231" s="37"/>
       <c r="H231" s="37"/>
       <c r="I231" s="37"/>
@@ -11557,7 +12032,9 @@
       <c r="E232" s="31">
         <v>4</v>
       </c>
-      <c r="F232" s="37"/>
+      <c r="F232" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G232" s="37"/>
       <c r="H232" s="37"/>
       <c r="I232" s="37"/>
@@ -11592,7 +12069,9 @@
       <c r="E233" s="31">
         <v>1</v>
       </c>
-      <c r="F233" s="37"/>
+      <c r="F233" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G233" s="37"/>
       <c r="H233" s="37"/>
       <c r="I233" s="37"/>
@@ -11627,7 +12106,9 @@
       <c r="E234" s="31">
         <v>3</v>
       </c>
-      <c r="F234" s="37"/>
+      <c r="F234" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G234" s="37"/>
       <c r="H234" s="37"/>
       <c r="I234" s="37"/>
@@ -11662,7 +12143,9 @@
       <c r="E235" s="31">
         <v>2</v>
       </c>
-      <c r="F235" s="37"/>
+      <c r="F235" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G235" s="37"/>
       <c r="H235" s="37"/>
       <c r="I235" s="37"/>
@@ -11697,7 +12180,9 @@
       <c r="E236" s="31">
         <v>3</v>
       </c>
-      <c r="F236" s="37"/>
+      <c r="F236" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G236" s="37"/>
       <c r="H236" s="37"/>
       <c r="I236" s="37"/>
@@ -11732,7 +12217,9 @@
       <c r="E237" s="31">
         <v>1</v>
       </c>
-      <c r="F237" s="37"/>
+      <c r="F237" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G237" s="37"/>
       <c r="H237" s="37"/>
       <c r="I237" s="37"/>
@@ -11767,7 +12254,9 @@
       <c r="E238" s="31">
         <v>4</v>
       </c>
-      <c r="F238" s="37"/>
+      <c r="F238" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G238" s="37"/>
       <c r="H238" s="37"/>
       <c r="I238" s="37"/>
@@ -11802,7 +12291,9 @@
       <c r="E239" s="31">
         <v>2</v>
       </c>
-      <c r="F239" s="37"/>
+      <c r="F239" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G239" s="37"/>
       <c r="H239" s="37"/>
       <c r="I239" s="37"/>
@@ -11837,7 +12328,9 @@
       <c r="E240" s="31">
         <v>4</v>
       </c>
-      <c r="F240" s="37"/>
+      <c r="F240" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G240" s="37"/>
       <c r="H240" s="37"/>
       <c r="I240" s="37"/>
@@ -11872,7 +12365,9 @@
       <c r="E241" s="31">
         <v>2</v>
       </c>
-      <c r="F241" s="37"/>
+      <c r="F241" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G241" s="37"/>
       <c r="H241" s="37"/>
       <c r="I241" s="37"/>
@@ -11907,7 +12402,9 @@
       <c r="E242" s="31">
         <v>3</v>
       </c>
-      <c r="F242" s="37"/>
+      <c r="F242" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G242" s="37"/>
       <c r="H242" s="37"/>
       <c r="I242" s="37"/>
@@ -11942,7 +12439,9 @@
       <c r="E243" s="31">
         <v>1</v>
       </c>
-      <c r="F243" s="37"/>
+      <c r="F243" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G243" s="37"/>
       <c r="H243" s="37"/>
       <c r="I243" s="37"/>
@@ -11977,7 +12476,9 @@
       <c r="E244" s="31">
         <v>2</v>
       </c>
-      <c r="F244" s="37"/>
+      <c r="F244" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G244" s="37"/>
       <c r="H244" s="37"/>
       <c r="I244" s="37"/>
@@ -12012,7 +12513,9 @@
       <c r="E245" s="31">
         <v>1</v>
       </c>
-      <c r="F245" s="37"/>
+      <c r="F245" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G245" s="37"/>
       <c r="H245" s="37"/>
       <c r="I245" s="37"/>
@@ -12047,7 +12550,9 @@
       <c r="E246" s="31">
         <v>2</v>
       </c>
-      <c r="F246" s="37"/>
+      <c r="F246" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G246" s="37"/>
       <c r="H246" s="37"/>
       <c r="I246" s="37"/>
@@ -12082,7 +12587,9 @@
       <c r="E247" s="31">
         <v>4</v>
       </c>
-      <c r="F247" s="37"/>
+      <c r="F247" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G247" s="37"/>
       <c r="H247" s="37"/>
       <c r="I247" s="37"/>
@@ -12117,7 +12624,9 @@
       <c r="E248" s="31">
         <v>1</v>
       </c>
-      <c r="F248" s="37"/>
+      <c r="F248" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G248" s="37"/>
       <c r="H248" s="37"/>
       <c r="I248" s="37"/>
@@ -12152,7 +12661,9 @@
       <c r="E249" s="31">
         <v>1</v>
       </c>
-      <c r="F249" s="37"/>
+      <c r="F249" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G249" s="37"/>
       <c r="H249" s="37"/>
       <c r="I249" s="37"/>
@@ -12187,7 +12698,9 @@
       <c r="E250" s="31">
         <v>1</v>
       </c>
-      <c r="F250" s="37"/>
+      <c r="F250" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G250" s="37"/>
       <c r="H250" s="37"/>
       <c r="I250" s="37"/>
@@ -12222,7 +12735,9 @@
       <c r="E251" s="31">
         <v>3</v>
       </c>
-      <c r="F251" s="37"/>
+      <c r="F251" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G251" s="37"/>
       <c r="H251" s="37"/>
       <c r="I251" s="37"/>
@@ -12257,7 +12772,9 @@
       <c r="E252" s="31">
         <v>1</v>
       </c>
-      <c r="F252" s="37"/>
+      <c r="F252" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G252" s="37"/>
       <c r="H252" s="37"/>
       <c r="I252" s="37"/>
@@ -12292,7 +12809,9 @@
       <c r="E253" s="31">
         <v>1</v>
       </c>
-      <c r="F253" s="37"/>
+      <c r="F253" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G253" s="37"/>
       <c r="H253" s="37"/>
       <c r="I253" s="37"/>
@@ -12327,7 +12846,9 @@
       <c r="E254" s="31">
         <v>3</v>
       </c>
-      <c r="F254" s="37"/>
+      <c r="F254" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G254" s="37"/>
       <c r="H254" s="37"/>
       <c r="I254" s="37"/>
@@ -12362,7 +12883,9 @@
       <c r="E255" s="31">
         <v>4</v>
       </c>
-      <c r="F255" s="37"/>
+      <c r="F255" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G255" s="37"/>
       <c r="H255" s="37"/>
       <c r="I255" s="37"/>
@@ -12397,7 +12920,9 @@
       <c r="E256" s="31">
         <v>2</v>
       </c>
-      <c r="F256" s="37"/>
+      <c r="F256" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G256" s="37"/>
       <c r="H256" s="37"/>
       <c r="I256" s="37"/>
@@ -12432,7 +12957,9 @@
       <c r="E257" s="31">
         <v>2</v>
       </c>
-      <c r="F257" s="37"/>
+      <c r="F257" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G257" s="37"/>
       <c r="H257" s="37"/>
       <c r="I257" s="37"/>
@@ -12467,7 +12994,9 @@
       <c r="E258" s="31">
         <v>3</v>
       </c>
-      <c r="F258" s="37"/>
+      <c r="F258" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G258" s="37"/>
       <c r="H258" s="37"/>
       <c r="I258" s="37"/>
@@ -12502,7 +13031,9 @@
       <c r="E259" s="31">
         <v>2</v>
       </c>
-      <c r="F259" s="37"/>
+      <c r="F259" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G259" s="37"/>
       <c r="H259" s="37"/>
       <c r="I259" s="37"/>
@@ -12537,7 +13068,9 @@
       <c r="E260" s="31">
         <v>1</v>
       </c>
-      <c r="F260" s="37"/>
+      <c r="F260" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G260" s="37"/>
       <c r="H260" s="37"/>
       <c r="I260" s="37"/>
@@ -12572,7 +13105,9 @@
       <c r="E261" s="31">
         <v>4</v>
       </c>
-      <c r="F261" s="37"/>
+      <c r="F261" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G261" s="37"/>
       <c r="H261" s="37"/>
       <c r="I261" s="37"/>
@@ -12607,7 +13142,9 @@
       <c r="E262" s="31">
         <v>4</v>
       </c>
-      <c r="F262" s="37"/>
+      <c r="F262" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G262" s="37"/>
       <c r="H262" s="37"/>
       <c r="I262" s="37"/>
@@ -12642,7 +13179,9 @@
       <c r="E263" s="31">
         <v>3</v>
       </c>
-      <c r="F263" s="37"/>
+      <c r="F263" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G263" s="37"/>
       <c r="H263" s="37"/>
       <c r="I263" s="37"/>
@@ -12677,7 +13216,9 @@
       <c r="E264" s="31">
         <v>2</v>
       </c>
-      <c r="F264" s="37"/>
+      <c r="F264" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G264" s="37"/>
       <c r="H264" s="37"/>
       <c r="I264" s="37"/>
@@ -12712,7 +13253,9 @@
       <c r="E265" s="31">
         <v>4</v>
       </c>
-      <c r="F265" s="37"/>
+      <c r="F265" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G265" s="37"/>
       <c r="H265" s="37"/>
       <c r="I265" s="37"/>
@@ -12747,7 +13290,9 @@
       <c r="E266" s="31">
         <v>1</v>
       </c>
-      <c r="F266" s="37"/>
+      <c r="F266" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G266" s="37"/>
       <c r="H266" s="37"/>
       <c r="I266" s="37"/>
@@ -12782,7 +13327,9 @@
       <c r="E267" s="31">
         <v>3</v>
       </c>
-      <c r="F267" s="37"/>
+      <c r="F267" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G267" s="37"/>
       <c r="H267" s="37"/>
       <c r="I267" s="37"/>
@@ -12817,7 +13364,9 @@
       <c r="E268" s="31">
         <v>3</v>
       </c>
-      <c r="F268" s="37"/>
+      <c r="F268" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G268" s="37"/>
       <c r="H268" s="37"/>
       <c r="I268" s="37"/>
@@ -12852,7 +13401,9 @@
       <c r="E269" s="31">
         <v>4</v>
       </c>
-      <c r="F269" s="37"/>
+      <c r="F269" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G269" s="37"/>
       <c r="H269" s="37"/>
       <c r="I269" s="37"/>
@@ -12887,7 +13438,9 @@
       <c r="E270" s="31">
         <v>2</v>
       </c>
-      <c r="F270" s="37"/>
+      <c r="F270" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G270" s="37"/>
       <c r="H270" s="37"/>
       <c r="I270" s="37"/>
@@ -12922,7 +13475,9 @@
       <c r="E271" s="31">
         <v>2</v>
       </c>
-      <c r="F271" s="37"/>
+      <c r="F271" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G271" s="37"/>
       <c r="H271" s="37"/>
       <c r="I271" s="37"/>
@@ -12957,7 +13512,9 @@
       <c r="E272" s="31">
         <v>1</v>
       </c>
-      <c r="F272" s="37"/>
+      <c r="F272" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G272" s="37"/>
       <c r="H272" s="37"/>
       <c r="I272" s="37"/>
@@ -12992,7 +13549,9 @@
       <c r="E273" s="31">
         <v>3</v>
       </c>
-      <c r="F273" s="37"/>
+      <c r="F273" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G273" s="37"/>
       <c r="H273" s="37"/>
       <c r="I273" s="37"/>
@@ -13027,7 +13586,9 @@
       <c r="E274" s="31">
         <v>3</v>
       </c>
-      <c r="F274" s="37"/>
+      <c r="F274" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G274" s="37"/>
       <c r="H274" s="37"/>
       <c r="I274" s="37"/>
@@ -13062,7 +13623,9 @@
       <c r="E275" s="31">
         <v>1</v>
       </c>
-      <c r="F275" s="37"/>
+      <c r="F275" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G275" s="37"/>
       <c r="H275" s="37"/>
       <c r="I275" s="37"/>
@@ -13097,7 +13660,9 @@
       <c r="E276" s="31">
         <v>3</v>
       </c>
-      <c r="F276" s="37"/>
+      <c r="F276" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G276" s="37"/>
       <c r="H276" s="37"/>
       <c r="I276" s="37"/>
@@ -13132,7 +13697,9 @@
       <c r="E277" s="31">
         <v>4</v>
       </c>
-      <c r="F277" s="37"/>
+      <c r="F277" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G277" s="37"/>
       <c r="H277" s="37"/>
       <c r="I277" s="37"/>
@@ -13167,7 +13734,9 @@
       <c r="E278" s="31">
         <v>3</v>
       </c>
-      <c r="F278" s="37"/>
+      <c r="F278" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G278" s="37"/>
       <c r="H278" s="37"/>
       <c r="I278" s="37"/>
@@ -13202,7 +13771,9 @@
       <c r="E279" s="31">
         <v>4</v>
       </c>
-      <c r="F279" s="37"/>
+      <c r="F279" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G279" s="37"/>
       <c r="H279" s="37"/>
       <c r="I279" s="37"/>
@@ -13237,7 +13808,9 @@
       <c r="E280" s="31">
         <v>1</v>
       </c>
-      <c r="F280" s="37"/>
+      <c r="F280" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G280" s="37"/>
       <c r="H280" s="37"/>
       <c r="I280" s="37"/>
@@ -13272,7 +13845,9 @@
       <c r="E281" s="31">
         <v>4</v>
       </c>
-      <c r="F281" s="37"/>
+      <c r="F281" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G281" s="37"/>
       <c r="H281" s="37"/>
       <c r="I281" s="37"/>
@@ -13307,7 +13882,9 @@
       <c r="E282" s="31">
         <v>3</v>
       </c>
-      <c r="F282" s="37"/>
+      <c r="F282" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G282" s="37"/>
       <c r="H282" s="37"/>
       <c r="I282" s="37"/>
@@ -13342,7 +13919,9 @@
       <c r="E283" s="31">
         <v>2</v>
       </c>
-      <c r="F283" s="37"/>
+      <c r="F283" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G283" s="37"/>
       <c r="H283" s="37"/>
       <c r="I283" s="37"/>
@@ -13377,7 +13956,9 @@
       <c r="E284" s="31">
         <v>2</v>
       </c>
-      <c r="F284" s="37"/>
+      <c r="F284" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G284" s="37"/>
       <c r="H284" s="37"/>
       <c r="I284" s="37"/>
@@ -13412,7 +13993,9 @@
       <c r="E285" s="31">
         <v>2</v>
       </c>
-      <c r="F285" s="37"/>
+      <c r="F285" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G285" s="37"/>
       <c r="H285" s="37"/>
       <c r="I285" s="37"/>
@@ -13447,7 +14030,9 @@
       <c r="E286" s="31">
         <v>3</v>
       </c>
-      <c r="F286" s="37"/>
+      <c r="F286" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G286" s="37"/>
       <c r="H286" s="37"/>
       <c r="I286" s="37"/>
@@ -13482,7 +14067,9 @@
       <c r="E287" s="31">
         <v>4</v>
       </c>
-      <c r="F287" s="37"/>
+      <c r="F287" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G287" s="37"/>
       <c r="H287" s="37"/>
       <c r="I287" s="37"/>
@@ -13517,7 +14104,9 @@
       <c r="E288" s="31">
         <v>2</v>
       </c>
-      <c r="F288" s="37"/>
+      <c r="F288" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G288" s="37"/>
       <c r="H288" s="37"/>
       <c r="I288" s="37"/>
@@ -13552,7 +14141,9 @@
       <c r="E289" s="31">
         <v>1</v>
       </c>
-      <c r="F289" s="37"/>
+      <c r="F289" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G289" s="37"/>
       <c r="H289" s="37"/>
       <c r="I289" s="37"/>
@@ -13587,7 +14178,9 @@
       <c r="E290" s="31">
         <v>4</v>
       </c>
-      <c r="F290" s="37"/>
+      <c r="F290" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G290" s="37"/>
       <c r="H290" s="37"/>
       <c r="I290" s="37"/>
@@ -13622,7 +14215,9 @@
       <c r="E291" s="31">
         <v>3</v>
       </c>
-      <c r="F291" s="37"/>
+      <c r="F291" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G291" s="37"/>
       <c r="H291" s="37"/>
       <c r="I291" s="37"/>
@@ -13657,7 +14252,9 @@
       <c r="E292" s="31">
         <v>2</v>
       </c>
-      <c r="F292" s="37"/>
+      <c r="F292" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G292" s="37"/>
       <c r="H292" s="37"/>
       <c r="I292" s="37"/>
@@ -13692,7 +14289,9 @@
       <c r="E293" s="31">
         <v>3</v>
       </c>
-      <c r="F293" s="37"/>
+      <c r="F293" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G293" s="37"/>
       <c r="H293" s="37"/>
       <c r="I293" s="37"/>
@@ -13727,7 +14326,9 @@
       <c r="E294" s="31">
         <v>3</v>
       </c>
-      <c r="F294" s="37"/>
+      <c r="F294" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G294" s="37"/>
       <c r="H294" s="37"/>
       <c r="I294" s="37"/>
@@ -13762,7 +14363,9 @@
       <c r="E295" s="31">
         <v>4</v>
       </c>
-      <c r="F295" s="37"/>
+      <c r="F295" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G295" s="37"/>
       <c r="H295" s="37"/>
       <c r="I295" s="37"/>
@@ -13797,7 +14400,9 @@
       <c r="E296" s="31">
         <v>1</v>
       </c>
-      <c r="F296" s="37"/>
+      <c r="F296" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G296" s="37"/>
       <c r="H296" s="37"/>
       <c r="I296" s="37"/>
@@ -13832,7 +14437,9 @@
       <c r="E297" s="31">
         <v>1</v>
       </c>
-      <c r="F297" s="37"/>
+      <c r="F297" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G297" s="37"/>
       <c r="H297" s="37"/>
       <c r="I297" s="37"/>
@@ -13867,7 +14474,9 @@
       <c r="E298" s="31">
         <v>2</v>
       </c>
-      <c r="F298" s="37"/>
+      <c r="F298" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G298" s="37"/>
       <c r="H298" s="37"/>
       <c r="I298" s="37"/>
@@ -13902,7 +14511,9 @@
       <c r="E299" s="31">
         <v>3</v>
       </c>
-      <c r="F299" s="37"/>
+      <c r="F299" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G299" s="37"/>
       <c r="H299" s="37"/>
       <c r="I299" s="37"/>
@@ -13937,7 +14548,9 @@
       <c r="E300" s="31">
         <v>1</v>
       </c>
-      <c r="F300" s="37"/>
+      <c r="F300" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G300" s="37"/>
       <c r="H300" s="37"/>
       <c r="I300" s="37"/>
@@ -13972,7 +14585,9 @@
       <c r="E301" s="31">
         <v>4</v>
       </c>
-      <c r="F301" s="37"/>
+      <c r="F301" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G301" s="37"/>
       <c r="H301" s="37"/>
       <c r="I301" s="37"/>
@@ -14007,7 +14622,9 @@
       <c r="E302" s="31">
         <v>2</v>
       </c>
-      <c r="F302" s="37"/>
+      <c r="F302" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G302" s="37"/>
       <c r="H302" s="37"/>
       <c r="I302" s="37"/>
@@ -14042,7 +14659,9 @@
       <c r="E303" s="31">
         <v>3</v>
       </c>
-      <c r="F303" s="37"/>
+      <c r="F303" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G303" s="37"/>
       <c r="H303" s="37"/>
       <c r="I303" s="37"/>
@@ -14077,7 +14696,9 @@
       <c r="E304" s="31">
         <v>2</v>
       </c>
-      <c r="F304" s="37"/>
+      <c r="F304" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G304" s="37"/>
       <c r="H304" s="37"/>
       <c r="I304" s="37"/>
@@ -14112,7 +14733,9 @@
       <c r="E305" s="31">
         <v>4</v>
       </c>
-      <c r="F305" s="37"/>
+      <c r="F305" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G305" s="37"/>
       <c r="H305" s="37"/>
       <c r="I305" s="37"/>
@@ -14147,7 +14770,9 @@
       <c r="E306" s="31">
         <v>1</v>
       </c>
-      <c r="F306" s="37"/>
+      <c r="F306" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G306" s="37"/>
       <c r="H306" s="37"/>
       <c r="I306" s="37"/>
@@ -14182,7 +14807,9 @@
       <c r="E307" s="31">
         <v>4</v>
       </c>
-      <c r="F307" s="37"/>
+      <c r="F307" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G307" s="37"/>
       <c r="H307" s="37"/>
       <c r="I307" s="37"/>
@@ -14217,7 +14844,9 @@
       <c r="E308" s="31">
         <v>2</v>
       </c>
-      <c r="F308" s="37"/>
+      <c r="F308" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G308" s="37"/>
       <c r="H308" s="37"/>
       <c r="I308" s="37"/>
@@ -14252,7 +14881,9 @@
       <c r="E309" s="31">
         <v>3</v>
       </c>
-      <c r="F309" s="37"/>
+      <c r="F309" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G309" s="37"/>
       <c r="H309" s="37"/>
       <c r="I309" s="37"/>
@@ -14287,7 +14918,9 @@
       <c r="E310" s="31">
         <v>4</v>
       </c>
-      <c r="F310" s="37"/>
+      <c r="F310" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G310" s="37"/>
       <c r="H310" s="37"/>
       <c r="I310" s="37"/>
@@ -14322,7 +14955,9 @@
       <c r="E311" s="31">
         <v>4</v>
       </c>
-      <c r="F311" s="37"/>
+      <c r="F311" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G311" s="37"/>
       <c r="H311" s="37"/>
       <c r="I311" s="37"/>
@@ -14357,7 +14992,9 @@
       <c r="E312" s="31">
         <v>3</v>
       </c>
-      <c r="F312" s="37"/>
+      <c r="F312" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G312" s="37"/>
       <c r="H312" s="37"/>
       <c r="I312" s="37"/>
@@ -14392,7 +15029,9 @@
       <c r="E313" s="31">
         <v>4</v>
       </c>
-      <c r="F313" s="37"/>
+      <c r="F313" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G313" s="37"/>
       <c r="H313" s="37"/>
       <c r="I313" s="37"/>
@@ -14427,7 +15066,9 @@
       <c r="E314" s="31">
         <v>4</v>
       </c>
-      <c r="F314" s="37"/>
+      <c r="F314" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G314" s="37"/>
       <c r="H314" s="37"/>
       <c r="I314" s="37"/>
@@ -14462,7 +15103,9 @@
       <c r="E315" s="31">
         <v>2</v>
       </c>
-      <c r="F315" s="37"/>
+      <c r="F315" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G315" s="37"/>
       <c r="H315" s="37"/>
       <c r="I315" s="37"/>
@@ -14497,7 +15140,9 @@
       <c r="E316" s="31">
         <v>2</v>
       </c>
-      <c r="F316" s="37"/>
+      <c r="F316" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G316" s="37"/>
       <c r="H316" s="37"/>
       <c r="I316" s="37"/>
@@ -14532,7 +15177,9 @@
       <c r="E317" s="31">
         <v>3</v>
       </c>
-      <c r="F317" s="37"/>
+      <c r="F317" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G317" s="37"/>
       <c r="H317" s="37"/>
       <c r="I317" s="37"/>
@@ -14567,7 +15214,9 @@
       <c r="E318" s="31">
         <v>1</v>
       </c>
-      <c r="F318" s="37"/>
+      <c r="F318" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G318" s="37"/>
       <c r="H318" s="37"/>
       <c r="I318" s="37"/>
@@ -14602,7 +15251,9 @@
       <c r="E319" s="31">
         <v>3</v>
       </c>
-      <c r="F319" s="37"/>
+      <c r="F319" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G319" s="37"/>
       <c r="H319" s="37"/>
       <c r="I319" s="37"/>
@@ -14637,7 +15288,9 @@
       <c r="E320" s="31">
         <v>1</v>
       </c>
-      <c r="F320" s="37"/>
+      <c r="F320" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G320" s="37"/>
       <c r="H320" s="37"/>
       <c r="I320" s="37"/>
@@ -14672,7 +15325,9 @@
       <c r="E321" s="31">
         <v>1</v>
       </c>
-      <c r="F321" s="37"/>
+      <c r="F321" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G321" s="37"/>
       <c r="H321" s="37"/>
       <c r="I321" s="37"/>
@@ -14707,7 +15362,9 @@
       <c r="E322" s="31">
         <v>4</v>
       </c>
-      <c r="F322" s="37"/>
+      <c r="F322" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G322" s="37"/>
       <c r="H322" s="37"/>
       <c r="I322" s="37"/>
@@ -14742,7 +15399,9 @@
       <c r="E323" s="31">
         <v>4</v>
       </c>
-      <c r="F323" s="37"/>
+      <c r="F323" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G323" s="37"/>
       <c r="H323" s="37"/>
       <c r="I323" s="37"/>
@@ -14777,7 +15436,9 @@
       <c r="E324" s="31">
         <v>1</v>
       </c>
-      <c r="F324" s="37"/>
+      <c r="F324" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G324" s="37"/>
       <c r="H324" s="37"/>
       <c r="I324" s="37"/>
@@ -14812,7 +15473,9 @@
       <c r="E325" s="31">
         <v>2</v>
       </c>
-      <c r="F325" s="37"/>
+      <c r="F325" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G325" s="37"/>
       <c r="H325" s="37"/>
       <c r="I325" s="37"/>
@@ -14847,7 +15510,9 @@
       <c r="E326" s="31">
         <v>2</v>
       </c>
-      <c r="F326" s="37"/>
+      <c r="F326" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G326" s="37"/>
       <c r="H326" s="37"/>
       <c r="I326" s="37"/>
@@ -14882,7 +15547,9 @@
       <c r="E327" s="31">
         <v>1</v>
       </c>
-      <c r="F327" s="37"/>
+      <c r="F327" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G327" s="37"/>
       <c r="H327" s="37"/>
       <c r="I327" s="37"/>
@@ -14917,7 +15584,9 @@
       <c r="E328" s="31">
         <v>3</v>
       </c>
-      <c r="F328" s="37"/>
+      <c r="F328" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G328" s="37"/>
       <c r="H328" s="37"/>
       <c r="I328" s="37"/>
@@ -14952,7 +15621,9 @@
       <c r="E329" s="31">
         <v>2</v>
       </c>
-      <c r="F329" s="37"/>
+      <c r="F329" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G329" s="37"/>
       <c r="H329" s="37"/>
       <c r="I329" s="37"/>
@@ -14987,7 +15658,9 @@
       <c r="E330" s="31">
         <v>2</v>
       </c>
-      <c r="F330" s="37"/>
+      <c r="F330" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G330" s="37"/>
       <c r="H330" s="37"/>
       <c r="I330" s="37"/>
@@ -15022,7 +15695,9 @@
       <c r="E331" s="31">
         <v>1</v>
       </c>
-      <c r="F331" s="37"/>
+      <c r="F331" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G331" s="37"/>
       <c r="H331" s="37"/>
       <c r="I331" s="37"/>
@@ -15057,7 +15732,9 @@
       <c r="E332" s="31">
         <v>1</v>
       </c>
-      <c r="F332" s="37"/>
+      <c r="F332" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G332" s="37"/>
       <c r="H332" s="37"/>
       <c r="I332" s="37"/>
@@ -15092,7 +15769,9 @@
       <c r="E333" s="31">
         <v>1</v>
       </c>
-      <c r="F333" s="37"/>
+      <c r="F333" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G333" s="37"/>
       <c r="H333" s="37"/>
       <c r="I333" s="37"/>
@@ -15127,7 +15806,9 @@
       <c r="E334" s="31">
         <v>1</v>
       </c>
-      <c r="F334" s="37"/>
+      <c r="F334" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G334" s="37"/>
       <c r="H334" s="37"/>
       <c r="I334" s="37"/>
@@ -15162,7 +15843,9 @@
       <c r="E335" s="31">
         <v>4</v>
       </c>
-      <c r="F335" s="37"/>
+      <c r="F335" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G335" s="37"/>
       <c r="H335" s="37"/>
       <c r="I335" s="37"/>
@@ -15197,7 +15880,9 @@
       <c r="E336" s="31">
         <v>3</v>
       </c>
-      <c r="F336" s="37"/>
+      <c r="F336" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G336" s="37"/>
       <c r="H336" s="37"/>
       <c r="I336" s="37"/>
@@ -15232,7 +15917,9 @@
       <c r="E337" s="31">
         <v>2</v>
       </c>
-      <c r="F337" s="37"/>
+      <c r="F337" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G337" s="37"/>
       <c r="H337" s="37"/>
       <c r="I337" s="37"/>
@@ -15267,7 +15954,9 @@
       <c r="E338" s="31">
         <v>3</v>
       </c>
-      <c r="F338" s="37"/>
+      <c r="F338" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G338" s="37"/>
       <c r="H338" s="37"/>
       <c r="I338" s="37"/>
@@ -15302,7 +15991,9 @@
       <c r="E339" s="31">
         <v>1</v>
       </c>
-      <c r="F339" s="37"/>
+      <c r="F339" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G339" s="37"/>
       <c r="H339" s="37"/>
       <c r="I339" s="37"/>
@@ -15337,7 +16028,9 @@
       <c r="E340" s="31">
         <v>4</v>
       </c>
-      <c r="F340" s="37"/>
+      <c r="F340" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G340" s="37"/>
       <c r="H340" s="37"/>
       <c r="I340" s="37"/>
@@ -15372,7 +16065,9 @@
       <c r="E341" s="31">
         <v>2</v>
       </c>
-      <c r="F341" s="37"/>
+      <c r="F341" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G341" s="37"/>
       <c r="H341" s="37"/>
       <c r="I341" s="37"/>
@@ -15407,7 +16102,9 @@
       <c r="E342" s="31">
         <v>4</v>
       </c>
-      <c r="F342" s="37"/>
+      <c r="F342" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G342" s="37"/>
       <c r="H342" s="37"/>
       <c r="I342" s="37"/>
@@ -15442,7 +16139,9 @@
       <c r="E343" s="31">
         <v>1</v>
       </c>
-      <c r="F343" s="37"/>
+      <c r="F343" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G343" s="37"/>
       <c r="H343" s="37"/>
       <c r="I343" s="37"/>
@@ -15477,7 +16176,9 @@
       <c r="E344" s="31">
         <v>2</v>
       </c>
-      <c r="F344" s="37"/>
+      <c r="F344" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G344" s="37"/>
       <c r="H344" s="37"/>
       <c r="I344" s="37"/>
@@ -15512,7 +16213,9 @@
       <c r="E345" s="31">
         <v>1</v>
       </c>
-      <c r="F345" s="37"/>
+      <c r="F345" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G345" s="37"/>
       <c r="H345" s="37"/>
       <c r="I345" s="37"/>
@@ -15547,7 +16250,9 @@
       <c r="E346" s="31">
         <v>1</v>
       </c>
-      <c r="F346" s="37"/>
+      <c r="F346" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G346" s="37"/>
       <c r="H346" s="37"/>
       <c r="I346" s="37"/>
@@ -15582,7 +16287,9 @@
       <c r="E347" s="31">
         <v>1</v>
       </c>
-      <c r="F347" s="37"/>
+      <c r="F347" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G347" s="37"/>
       <c r="H347" s="37"/>
       <c r="I347" s="37"/>
@@ -15617,7 +16324,9 @@
       <c r="E348" s="31">
         <v>1</v>
       </c>
-      <c r="F348" s="37"/>
+      <c r="F348" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G348" s="37"/>
       <c r="H348" s="37"/>
       <c r="I348" s="37"/>
@@ -15652,7 +16361,9 @@
       <c r="E349" s="31">
         <v>1</v>
       </c>
-      <c r="F349" s="37"/>
+      <c r="F349" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G349" s="37"/>
       <c r="H349" s="37"/>
       <c r="I349" s="37"/>
@@ -15687,7 +16398,9 @@
       <c r="E350" s="31">
         <v>1</v>
       </c>
-      <c r="F350" s="37"/>
+      <c r="F350" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G350" s="37"/>
       <c r="H350" s="37"/>
       <c r="I350" s="37"/>
@@ -15722,7 +16435,9 @@
       <c r="E351" s="31">
         <v>2</v>
       </c>
-      <c r="F351" s="37"/>
+      <c r="F351" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G351" s="37"/>
       <c r="H351" s="37"/>
       <c r="I351" s="37"/>
@@ -15757,7 +16472,9 @@
       <c r="E352" s="31">
         <v>1</v>
       </c>
-      <c r="F352" s="37"/>
+      <c r="F352" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G352" s="37"/>
       <c r="H352" s="37"/>
       <c r="I352" s="37"/>
@@ -15792,7 +16509,9 @@
       <c r="E353" s="31">
         <v>2</v>
       </c>
-      <c r="F353" s="37"/>
+      <c r="F353" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G353" s="37"/>
       <c r="H353" s="37"/>
       <c r="I353" s="37"/>
@@ -15827,7 +16546,9 @@
       <c r="E354" s="31">
         <v>1</v>
       </c>
-      <c r="F354" s="37"/>
+      <c r="F354" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G354" s="37"/>
       <c r="H354" s="37"/>
       <c r="I354" s="37"/>
@@ -15862,7 +16583,9 @@
       <c r="E355" s="31">
         <v>1</v>
       </c>
-      <c r="F355" s="37"/>
+      <c r="F355" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G355" s="37"/>
       <c r="H355" s="37"/>
       <c r="I355" s="37"/>
@@ -15897,7 +16620,9 @@
       <c r="E356" s="31">
         <v>2</v>
       </c>
-      <c r="F356" s="37"/>
+      <c r="F356" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G356" s="37"/>
       <c r="H356" s="37"/>
       <c r="I356" s="37"/>
@@ -15932,7 +16657,9 @@
       <c r="E357" s="31">
         <v>2</v>
       </c>
-      <c r="F357" s="37"/>
+      <c r="F357" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G357" s="37"/>
       <c r="H357" s="37"/>
       <c r="I357" s="37"/>
@@ -15967,7 +16694,9 @@
       <c r="E358" s="31">
         <v>2</v>
       </c>
-      <c r="F358" s="37"/>
+      <c r="F358" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G358" s="37"/>
       <c r="H358" s="37"/>
       <c r="I358" s="37"/>
@@ -16002,7 +16731,9 @@
       <c r="E359" s="31">
         <v>2</v>
       </c>
-      <c r="F359" s="37"/>
+      <c r="F359" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G359" s="37"/>
       <c r="H359" s="37"/>
       <c r="I359" s="37"/>
@@ -16037,7 +16768,9 @@
       <c r="E360" s="31">
         <v>1</v>
       </c>
-      <c r="F360" s="37"/>
+      <c r="F360" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G360" s="37"/>
       <c r="H360" s="37"/>
       <c r="I360" s="37"/>
@@ -16072,7 +16805,9 @@
       <c r="E361" s="31">
         <v>1</v>
       </c>
-      <c r="F361" s="37"/>
+      <c r="F361" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G361" s="37"/>
       <c r="H361" s="37"/>
       <c r="I361" s="37"/>
@@ -16107,7 +16842,9 @@
       <c r="E362" s="31">
         <v>2</v>
       </c>
-      <c r="F362" s="37"/>
+      <c r="F362" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G362" s="37"/>
       <c r="H362" s="37"/>
       <c r="I362" s="37"/>
@@ -16142,7 +16879,9 @@
       <c r="E363" s="31">
         <v>1</v>
       </c>
-      <c r="F363" s="37"/>
+      <c r="F363" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G363" s="37"/>
       <c r="H363" s="37"/>
       <c r="I363" s="37"/>
@@ -16177,7 +16916,9 @@
       <c r="E364" s="31">
         <v>2</v>
       </c>
-      <c r="F364" s="37"/>
+      <c r="F364" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G364" s="37"/>
       <c r="H364" s="37"/>
       <c r="I364" s="37"/>
@@ -16212,7 +16953,9 @@
       <c r="E365" s="31">
         <v>2</v>
       </c>
-      <c r="F365" s="37"/>
+      <c r="F365" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G365" s="37"/>
       <c r="H365" s="37"/>
       <c r="I365" s="37"/>
@@ -16247,7 +16990,9 @@
       <c r="E366" s="31">
         <v>1</v>
       </c>
-      <c r="F366" s="37"/>
+      <c r="F366" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G366" s="37"/>
       <c r="H366" s="37"/>
       <c r="I366" s="37"/>
@@ -16282,7 +17027,9 @@
       <c r="E367" s="31">
         <v>2</v>
       </c>
-      <c r="F367" s="37"/>
+      <c r="F367" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G367" s="37"/>
       <c r="H367" s="37"/>
       <c r="I367" s="37"/>
@@ -16317,7 +17064,9 @@
       <c r="E368" s="31">
         <v>2</v>
       </c>
-      <c r="F368" s="37"/>
+      <c r="F368" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G368" s="37"/>
       <c r="H368" s="37"/>
       <c r="I368" s="37"/>
@@ -16352,7 +17101,9 @@
       <c r="E369" s="31">
         <v>1</v>
       </c>
-      <c r="F369" s="37"/>
+      <c r="F369" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G369" s="37"/>
       <c r="H369" s="37"/>
       <c r="I369" s="37"/>
@@ -16387,7 +17138,9 @@
       <c r="E370" s="31">
         <v>1</v>
       </c>
-      <c r="F370" s="37"/>
+      <c r="F370" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G370" s="37"/>
       <c r="H370" s="37"/>
       <c r="I370" s="37"/>
@@ -16422,7 +17175,9 @@
       <c r="E371" s="31">
         <v>2</v>
       </c>
-      <c r="F371" s="37"/>
+      <c r="F371" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G371" s="37"/>
       <c r="H371" s="37"/>
       <c r="I371" s="37"/>
@@ -16457,7 +17212,9 @@
       <c r="E372" s="31">
         <v>1</v>
       </c>
-      <c r="F372" s="37"/>
+      <c r="F372" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G372" s="37"/>
       <c r="H372" s="37"/>
       <c r="I372" s="37"/>
@@ -16492,7 +17249,9 @@
       <c r="E373" s="31">
         <v>1</v>
       </c>
-      <c r="F373" s="37"/>
+      <c r="F373" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G373" s="37"/>
       <c r="H373" s="37"/>
       <c r="I373" s="37"/>
@@ -16527,7 +17286,9 @@
       <c r="E374" s="31">
         <v>1</v>
       </c>
-      <c r="F374" s="37"/>
+      <c r="F374" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G374" s="37"/>
       <c r="H374" s="37"/>
       <c r="I374" s="37"/>
@@ -16562,7 +17323,9 @@
       <c r="E375" s="31">
         <v>2</v>
       </c>
-      <c r="F375" s="37"/>
+      <c r="F375" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G375" s="37"/>
       <c r="H375" s="37"/>
       <c r="I375" s="37"/>
@@ -16597,7 +17360,9 @@
       <c r="E376" s="31">
         <v>1</v>
       </c>
-      <c r="F376" s="37"/>
+      <c r="F376" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G376" s="37"/>
       <c r="H376" s="37"/>
       <c r="I376" s="37"/>
@@ -16632,7 +17397,9 @@
       <c r="E377" s="31">
         <v>2</v>
       </c>
-      <c r="F377" s="37"/>
+      <c r="F377" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G377" s="37"/>
       <c r="H377" s="37"/>
       <c r="I377" s="37"/>
@@ -16667,7 +17434,9 @@
       <c r="E378" s="31">
         <v>1</v>
       </c>
-      <c r="F378" s="37"/>
+      <c r="F378" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G378" s="37"/>
       <c r="H378" s="37"/>
       <c r="I378" s="37"/>
@@ -16702,7 +17471,9 @@
       <c r="E379" s="31">
         <v>2</v>
       </c>
-      <c r="F379" s="37"/>
+      <c r="F379" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G379" s="37"/>
       <c r="H379" s="37"/>
       <c r="I379" s="37"/>
@@ -16737,7 +17508,9 @@
       <c r="E380" s="31">
         <v>2</v>
       </c>
-      <c r="F380" s="37"/>
+      <c r="F380" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G380" s="37"/>
       <c r="H380" s="37"/>
       <c r="I380" s="37"/>
@@ -16772,7 +17545,9 @@
       <c r="E381" s="31">
         <v>2</v>
       </c>
-      <c r="F381" s="37"/>
+      <c r="F381" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G381" s="37"/>
       <c r="H381" s="37"/>
       <c r="I381" s="37"/>
@@ -16807,7 +17582,9 @@
       <c r="E382" s="31">
         <v>1</v>
       </c>
-      <c r="F382" s="37"/>
+      <c r="F382" s="75" t="s">
+        <v>294</v>
+      </c>
       <c r="G382" s="37"/>
       <c r="H382" s="37"/>
       <c r="I382" s="37"/>
@@ -16842,7 +17619,9 @@
       <c r="E383" s="31">
         <v>2</v>
       </c>
-      <c r="F383" s="37"/>
+      <c r="F383" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G383" s="37"/>
       <c r="H383" s="37"/>
       <c r="I383" s="37"/>
@@ -16877,7 +17656,9 @@
       <c r="E384" s="31">
         <v>2</v>
       </c>
-      <c r="F384" s="37"/>
+      <c r="F384" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G384" s="37"/>
       <c r="H384" s="37"/>
       <c r="I384" s="37"/>
@@ -16912,7 +17693,9 @@
       <c r="E385" s="31">
         <v>1</v>
       </c>
-      <c r="F385" s="37"/>
+      <c r="F385" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G385" s="37"/>
       <c r="H385" s="37"/>
       <c r="I385" s="37"/>
@@ -16947,7 +17730,9 @@
       <c r="E386" s="31">
         <v>2</v>
       </c>
-      <c r="F386" s="37"/>
+      <c r="F386" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G386" s="37"/>
       <c r="H386" s="37"/>
       <c r="I386" s="37"/>
@@ -16982,7 +17767,9 @@
       <c r="E387" s="31">
         <v>2</v>
       </c>
-      <c r="F387" s="37"/>
+      <c r="F387" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G387" s="37"/>
       <c r="H387" s="37"/>
       <c r="I387" s="37"/>
@@ -17017,7 +17804,9 @@
       <c r="E388" s="31">
         <v>1</v>
       </c>
-      <c r="F388" s="37"/>
+      <c r="F388" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G388" s="37"/>
       <c r="H388" s="37"/>
       <c r="I388" s="37"/>
@@ -17052,7 +17841,9 @@
       <c r="E389" s="31">
         <v>2</v>
       </c>
-      <c r="F389" s="37"/>
+      <c r="F389" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G389" s="37"/>
       <c r="H389" s="37"/>
       <c r="I389" s="37"/>
@@ -17087,7 +17878,9 @@
       <c r="E390" s="31">
         <v>1</v>
       </c>
-      <c r="F390" s="37"/>
+      <c r="F390" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G390" s="37"/>
       <c r="H390" s="37"/>
       <c r="I390" s="37"/>
@@ -17122,7 +17915,9 @@
       <c r="E391" s="31">
         <v>2</v>
       </c>
-      <c r="F391" s="37"/>
+      <c r="F391" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G391" s="37"/>
       <c r="H391" s="37"/>
       <c r="I391" s="37"/>
@@ -17157,7 +17952,9 @@
       <c r="E392" s="31">
         <v>1</v>
       </c>
-      <c r="F392" s="37"/>
+      <c r="F392" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G392" s="37"/>
       <c r="H392" s="37"/>
       <c r="I392" s="37"/>
@@ -17192,7 +17989,9 @@
       <c r="E393" s="31">
         <v>1</v>
       </c>
-      <c r="F393" s="37"/>
+      <c r="F393" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G393" s="37"/>
       <c r="H393" s="37"/>
       <c r="I393" s="37"/>
@@ -17227,7 +18026,9 @@
       <c r="E394" s="31">
         <v>2</v>
       </c>
-      <c r="F394" s="37"/>
+      <c r="F394" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G394" s="37"/>
       <c r="H394" s="37"/>
       <c r="I394" s="37"/>
@@ -17262,7 +18063,9 @@
       <c r="E395" s="31">
         <v>1</v>
       </c>
-      <c r="F395" s="37"/>
+      <c r="F395" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G395" s="37"/>
       <c r="H395" s="37"/>
       <c r="I395" s="37"/>
@@ -17297,7 +18100,9 @@
       <c r="E396" s="31">
         <v>1</v>
       </c>
-      <c r="F396" s="37"/>
+      <c r="F396" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G396" s="37"/>
       <c r="H396" s="37"/>
       <c r="I396" s="37"/>
@@ -17332,7 +18137,9 @@
       <c r="E397" s="31">
         <v>2</v>
       </c>
-      <c r="F397" s="37"/>
+      <c r="F397" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G397" s="37"/>
       <c r="H397" s="37"/>
       <c r="I397" s="37"/>
@@ -17367,7 +18174,9 @@
       <c r="E398" s="31">
         <v>1</v>
       </c>
-      <c r="F398" s="37"/>
+      <c r="F398" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G398" s="37"/>
       <c r="H398" s="37"/>
       <c r="I398" s="37"/>
@@ -17402,7 +18211,9 @@
       <c r="E399" s="31">
         <v>2</v>
       </c>
-      <c r="F399" s="37"/>
+      <c r="F399" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G399" s="37"/>
       <c r="H399" s="37"/>
       <c r="I399" s="37"/>
@@ -17437,7 +18248,9 @@
       <c r="E400" s="31">
         <v>2</v>
       </c>
-      <c r="F400" s="37"/>
+      <c r="F400" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G400" s="37"/>
       <c r="H400" s="37"/>
       <c r="I400" s="37"/>
@@ -17472,7 +18285,9 @@
       <c r="E401" s="31">
         <v>2</v>
       </c>
-      <c r="F401" s="37"/>
+      <c r="F401" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G401" s="37"/>
       <c r="H401" s="37"/>
       <c r="I401" s="37"/>
@@ -17507,7 +18322,9 @@
       <c r="E402" s="31">
         <v>1</v>
       </c>
-      <c r="F402" s="37"/>
+      <c r="F402" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G402" s="37"/>
       <c r="H402" s="37"/>
       <c r="I402" s="37"/>
@@ -17542,7 +18359,9 @@
       <c r="E403" s="31">
         <v>2</v>
       </c>
-      <c r="F403" s="37"/>
+      <c r="F403" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="G403" s="37"/>
       <c r="H403" s="37"/>
       <c r="I403" s="37"/>
@@ -17577,7 +18396,9 @@
       <c r="E404" s="31">
         <v>2</v>
       </c>
-      <c r="F404" s="37"/>
+      <c r="F404" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G404" s="37"/>
       <c r="H404" s="37"/>
       <c r="I404" s="37"/>
@@ -17612,7 +18433,9 @@
       <c r="E405" s="31">
         <v>2</v>
       </c>
-      <c r="F405" s="37"/>
+      <c r="F405" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G405" s="37"/>
       <c r="H405" s="37"/>
       <c r="I405" s="37"/>
@@ -17647,7 +18470,9 @@
       <c r="E406" s="31">
         <v>1</v>
       </c>
-      <c r="F406" s="37"/>
+      <c r="F406" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G406" s="37"/>
       <c r="H406" s="37"/>
       <c r="I406" s="37"/>
@@ -17682,7 +18507,9 @@
       <c r="E407" s="31">
         <v>2</v>
       </c>
-      <c r="F407" s="37"/>
+      <c r="F407" s="76" t="s">
+        <v>307</v>
+      </c>
       <c r="G407" s="37"/>
       <c r="H407" s="37"/>
       <c r="I407" s="37"/>
@@ -17717,7 +18544,9 @@
       <c r="E408" s="31">
         <v>2</v>
       </c>
-      <c r="F408" s="37"/>
+      <c r="F408" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="G408" s="37"/>
       <c r="H408" s="37"/>
       <c r="I408" s="37"/>
@@ -17752,7 +18581,9 @@
       <c r="E409" s="31">
         <v>1</v>
       </c>
-      <c r="F409" s="37"/>
+      <c r="F409" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="G409" s="37"/>
       <c r="H409" s="37"/>
       <c r="I409" s="37"/>
@@ -17787,7 +18618,9 @@
       <c r="E410" s="31">
         <v>2</v>
       </c>
-      <c r="F410" s="37"/>
+      <c r="F410" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G410" s="37"/>
       <c r="H410" s="37"/>
       <c r="I410" s="37"/>
@@ -17815,7 +18648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0996A841-5AAC-46DF-A010-82CD21A7741A}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="206" zoomScaleNormal="206" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="206" zoomScaleNormal="206" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>

--- a/scripts/TI-Dashboard-Template.xlsx
+++ b/scripts/TI-Dashboard-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedkhalid/Projects/TI-Dashboard/TI-Dashboard/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F848446-59B7-644F-AAB8-2D428A4A3B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5030232-F306-014F-9D1E-14B907768D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" tabRatio="955" activeTab="1" xr2:uid="{FF39CD31-D48F-490A-A10C-4AE871D23273}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" tabRatio="955" xr2:uid="{FF39CD31-D48F-490A-A10C-4AE871D23273}"/>
   </bookViews>
   <sheets>
     <sheet name="GenAI Startup Overview 2024" sheetId="10" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="IN 15+years" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Gen AI Emerging skills 2024'!$D$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Gen AI Emerging skills 2024'!$A$1:$F$410</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1163,9 +1163,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1595,218 +1602,219 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2121,10 +2129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA4F842-37AC-4C2E-88CD-B381D10211AB}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -2142,10 +2150,11 @@
     <col min="11" max="11" width="17.6640625" style="68" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.83203125" style="68" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5" style="68" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="68"/>
+    <col min="14" max="14" width="10.1640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="67" t="s">
         <v>193</v>
       </c>
@@ -2185,8 +2194,11 @@
       <c r="M1" s="67" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="77" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="69" t="s">
         <v>205</v>
       </c>
@@ -2227,7 +2239,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="69" t="s">
         <v>216</v>
       </c>
@@ -2268,7 +2280,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="69" t="s">
         <v>224</v>
       </c>
@@ -2309,7 +2321,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="69" t="s">
         <v>233</v>
       </c>
@@ -2350,7 +2362,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="69" t="s">
         <v>240</v>
       </c>
@@ -2391,7 +2403,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="69" t="s">
         <v>248</v>
       </c>
@@ -2432,7 +2444,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="69" t="s">
         <v>256</v>
       </c>
@@ -2473,7 +2485,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="69" t="s">
         <v>264</v>
       </c>
@@ -2496,9 +2508,7 @@
         <v>214</v>
       </c>
       <c r="H9" s="72"/>
-      <c r="I9" s="72" t="s">
-        <v>214</v>
-      </c>
+      <c r="I9" s="72"/>
       <c r="J9" s="70" t="s">
         <v>267</v>
       </c>
@@ -2510,7 +2520,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="69" t="s">
         <v>268</v>
       </c>
@@ -2551,7 +2561,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="69" t="s">
         <v>275</v>
       </c>
@@ -3244,8 +3254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10A0AFA-A819-4C4A-9D97-B9DBFF563266}">
   <dimension ref="A1:W410"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="D1:E1"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/scripts/TI-Dashboard-Template.xlsx
+++ b/scripts/TI-Dashboard-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedkhalid/Projects/TI-Dashboard/TI-Dashboard/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5030232-F306-014F-9D1E-14B907768D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA9C455-F9D4-0642-8BF0-8B0B22A46F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" tabRatio="955" xr2:uid="{FF39CD31-D48F-490A-A10C-4AE871D23273}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="369">
   <si>
     <t>Location</t>
   </si>
@@ -2132,7 +2132,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -2194,9 +2194,7 @@
       <c r="M1" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="77" t="s">
-        <v>289</v>
-      </c>
+      <c r="N1" s="77"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="69" t="s">
